--- a/store.xlsx
+++ b/store.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Histline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8AFF63-7784-4842-97DC-C6B05D65C211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA697496-FC06-4694-9C4D-EDC087342A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Dynasty</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Humanity</t>
   </si>
   <si>
-    <t>Tolerance</t>
-  </si>
-  <si>
     <t>Law</t>
   </si>
   <si>
@@ -104,6 +101,24 @@
   </si>
   <si>
     <t>Wars</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Rituals</t>
+  </si>
+  <si>
+    <t>Malpractices</t>
+  </si>
+  <si>
+    <t>Diets</t>
+  </si>
+  <si>
+    <t>Kindness</t>
+  </si>
+  <si>
+    <t>Employment</t>
   </si>
 </sst>
 </file>
@@ -466,15 +481,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AG1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="28" max="28" width="13.88671875" customWidth="1"/>
+    <col min="29" max="29" width="9.109375" customWidth="1"/>
+    <col min="30" max="30" width="18" customWidth="1"/>
+    <col min="31" max="32" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,40 +545,55 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/store.xlsx
+++ b/store.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Histline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA697496-FC06-4694-9C4D-EDC087342A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B69A0D-D9E8-4DBD-A9BB-50C2F313B9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Dynasty</t>
   </si>
@@ -119,13 +119,49 @@
   </si>
   <si>
     <t>Employment</t>
+  </si>
+  <si>
+    <t>Magadha Empire</t>
+  </si>
+  <si>
+    <t>Pataliputra</t>
+  </si>
+  <si>
+    <t>Ajatashatru</t>
+  </si>
+  <si>
+    <t>Bimbisara</t>
+  </si>
+  <si>
+    <t>Political development in the Gangetic plain</t>
+  </si>
+  <si>
+    <t>Spread of Buddhism</t>
+  </si>
+  <si>
+    <t>Modern-day northern India</t>
+  </si>
+  <si>
+    <t>Agriculture, trade, and craftsmanship</t>
+  </si>
+  <si>
+    <t>Vedic rituals and religious ceremonies</t>
+  </si>
+  <si>
+    <t>Social inequalities</t>
+  </si>
+  <si>
+    <t>Meats and luxurious foods, grains and vegetables</t>
+  </si>
+  <si>
+    <t>Neighboring states</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +173,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,11 +216,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,18 +524,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="50.6640625" customWidth="1"/>
+    <col min="8" max="8" width="52.5546875" customWidth="1"/>
+    <col min="9" max="9" width="32.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
     <col min="28" max="28" width="13.88671875" customWidth="1"/>
     <col min="29" max="29" width="9.109375" customWidth="1"/>
-    <col min="30" max="30" width="18" customWidth="1"/>
-    <col min="31" max="32" width="15.33203125" customWidth="1"/>
+    <col min="30" max="30" width="39.109375" customWidth="1"/>
+    <col min="31" max="31" width="19.109375" customWidth="1"/>
+    <col min="32" max="32" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
@@ -596,7 +648,109 @@
         <v>30</v>
       </c>
     </row>
+    <row r="2" spans="1:33" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>-543</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-413</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>90</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>8</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/store.xlsx
+++ b/store.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Histline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B69A0D-D9E8-4DBD-A9BB-50C2F313B9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF9C3C8-DF67-4EFE-AB7B-6FB793699924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Dynasty</t>
   </si>
@@ -155,6 +155,36 @@
   </si>
   <si>
     <t>Neighboring states</t>
+  </si>
+  <si>
+    <t>Gupta vs Huns</t>
+  </si>
+  <si>
+    <t>Hindu rituals</t>
+  </si>
+  <si>
+    <t>Not well documented</t>
+  </si>
+  <si>
+    <t>Samudragupta</t>
+  </si>
+  <si>
+    <t>Chandragupta I</t>
+  </si>
+  <si>
+    <t>Gupta Empire</t>
+  </si>
+  <si>
+    <t>Advances in mathematics, astronomy, and art, Strong central administration, flourishing trade and economy</t>
+  </si>
+  <si>
+    <t>Reign of Chandragupta II = Vikramaditya</t>
+  </si>
+  <si>
+    <t>Agriculture, trade, craftsmanship, and administration</t>
+  </si>
+  <si>
+    <t>Various grains, fruits, and vegetables; Grains and vegetables</t>
   </si>
 </sst>
 </file>
@@ -524,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,7 +565,7 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="50.6640625" customWidth="1"/>
     <col min="8" max="8" width="52.5546875" customWidth="1"/>
     <col min="9" max="9" width="32.88671875" customWidth="1"/>
@@ -544,7 +574,8 @@
     <col min="29" max="29" width="9.109375" customWidth="1"/>
     <col min="30" max="30" width="39.109375" customWidth="1"/>
     <col min="31" max="31" width="19.109375" customWidth="1"/>
-    <col min="32" max="32" width="39.44140625" customWidth="1"/>
+    <col min="32" max="32" width="56.6640625" customWidth="1"/>
+    <col min="33" max="33" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
@@ -747,6 +778,107 @@
       </c>
       <c r="AG2" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>320</v>
+      </c>
+      <c r="C3" s="2">
+        <v>550</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="P3">
+        <v>8</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>8</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>90</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>4</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/store.xlsx
+++ b/store.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Histline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF9C3C8-DF67-4EFE-AB7B-6FB793699924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1485FCE0-1C02-4281-83BE-1F751A2A52D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Dynasty</t>
   </si>
@@ -185,13 +185,31 @@
   </si>
   <si>
     <t>Various grains, fruits, and vegetables; Grains and vegetables</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Inventions</t>
+  </si>
+  <si>
+    <t>Ashoka's pillars, Nalanda University complex</t>
+  </si>
+  <si>
+    <t>Mathematics, astronomy,  Mauryan Pillars</t>
+  </si>
+  <si>
+    <t>Concept of zero, decimal system, celestial movements</t>
+  </si>
+  <si>
+    <t>Temple at Deogarh, Udayagiri caves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +228,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -219,7 +243,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -242,16 +266,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1:AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,10 +616,12 @@
     <col min="30" max="30" width="39.109375" customWidth="1"/>
     <col min="31" max="31" width="19.109375" customWidth="1"/>
     <col min="32" max="32" width="56.6640625" customWidth="1"/>
-    <col min="33" max="33" width="49.6640625" customWidth="1"/>
+    <col min="33" max="33" width="55.109375" customWidth="1"/>
+    <col min="34" max="34" width="79.77734375" customWidth="1"/>
+    <col min="35" max="35" width="70.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,8 +721,15 @@
       <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AH1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ1" s="4"/>
     </row>
-    <row r="2" spans="1:33" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -779,8 +829,14 @@
       <c r="AG2" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="AH2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
@@ -879,6 +935,12 @@
       </c>
       <c r="AG3" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/store.xlsx
+++ b/store.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Histline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1485FCE0-1C02-4281-83BE-1F751A2A52D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E991D02D-524F-44D7-B821-16F892F24362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
   <si>
     <t>Dynasty</t>
   </si>
@@ -157,15 +157,9 @@
     <t>Neighboring states</t>
   </si>
   <si>
-    <t>Gupta vs Huns</t>
-  </si>
-  <si>
     <t>Hindu rituals</t>
   </si>
   <si>
-    <t>Not well documented</t>
-  </si>
-  <si>
     <t>Samudragupta</t>
   </si>
   <si>
@@ -175,18 +169,9 @@
     <t>Gupta Empire</t>
   </si>
   <si>
-    <t>Advances in mathematics, astronomy, and art, Strong central administration, flourishing trade and economy</t>
-  </si>
-  <si>
-    <t>Reign of Chandragupta II = Vikramaditya</t>
-  </si>
-  <si>
     <t>Agriculture, trade, craftsmanship, and administration</t>
   </si>
   <si>
-    <t>Various grains, fruits, and vegetables; Grains and vegetables</t>
-  </si>
-  <si>
     <t>Architecture</t>
   </si>
   <si>
@@ -199,10 +184,151 @@
     <t>Mathematics, astronomy,  Mauryan Pillars</t>
   </si>
   <si>
-    <t>Concept of zero, decimal system, celestial movements</t>
-  </si>
-  <si>
-    <t>Temple at Deogarh, Udayagiri caves</t>
+    <t>Established the Gupta dynasty</t>
+  </si>
+  <si>
+    <t>Beginning of the Gupta era</t>
+  </si>
+  <si>
+    <t>Not directly attributed</t>
+  </si>
+  <si>
+    <t>Foundation for later grand structures</t>
+  </si>
+  <si>
+    <t>No Specified</t>
+  </si>
+  <si>
+    <t>Chandragupta II</t>
+  </si>
+  <si>
+    <t>"Napoleon of India", Expanded the Gupta Empire to its zenith</t>
+  </si>
+  <si>
+    <t>Military conquests, Allahabad Pillar Inscription</t>
+  </si>
+  <si>
+    <t>North and Central India</t>
+  </si>
+  <si>
+    <t>Vedic rituals and ceremonies</t>
+  </si>
+  <si>
+    <t>Advancements in science and mathematics</t>
+  </si>
+  <si>
+    <t>Iconic Iron Pillar of Delhi and beautiful temples</t>
+  </si>
+  <si>
+    <t>Slavery, hierarchical social structures</t>
+  </si>
+  <si>
+    <t>hierarchical social structures</t>
+  </si>
+  <si>
+    <t>vs Neighbour Rival kings</t>
+  </si>
+  <si>
+    <t>Kumaragupta I</t>
+  </si>
+  <si>
+    <t>Chandragupta II=Chandragupta Vikramaditya, Patronage of arts, literature, and sciences</t>
+  </si>
+  <si>
+    <t>Gupta Empire continued to flourish during Chandragupta II</t>
+  </si>
+  <si>
+    <t>Dashavatara Temple in Deoghar,Udayagiri Caves in Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>elatively peaceful, focusing on consolidating</t>
+  </si>
+  <si>
+    <t>Skandagupta</t>
+  </si>
+  <si>
+    <t>Cultural and intellectual growth</t>
+  </si>
+  <si>
+    <t>Upholding Gupta cultural and religious traditions, Mathematics and astronomy</t>
+  </si>
+  <si>
+    <t>Mathematics and metallurgy</t>
+  </si>
+  <si>
+    <t>Ajanta Caves</t>
+  </si>
+  <si>
+    <t>Maintain territorial integrity and suppress external threats</t>
+  </si>
+  <si>
+    <t>Advancement</t>
+  </si>
+  <si>
+    <t>Tribes</t>
+  </si>
+  <si>
+    <t>Purugupta</t>
+  </si>
+  <si>
+    <t>Territorial integrity</t>
+  </si>
+  <si>
+    <t>Defense against the Hunas</t>
+  </si>
+  <si>
+    <t>Temple complexes and cave structures</t>
+  </si>
+  <si>
+    <t>Military campaigns against the Hunas</t>
+  </si>
+  <si>
+    <t>Various grains, meats, fruits, and vegetables; Grains and vegetables</t>
+  </si>
+  <si>
+    <t>Successful defense of the Gupta Empire against the Hunas</t>
+  </si>
+  <si>
+    <t>Hunas (Hephthalites)</t>
+  </si>
+  <si>
+    <t>Indigenous and regional groups</t>
+  </si>
+  <si>
+    <t>Cultural and scientific growth</t>
+  </si>
+  <si>
+    <t>Flourishing of art, literature, and science</t>
+  </si>
+  <si>
+    <t>Kumaragupta II</t>
+  </si>
+  <si>
+    <t>Promoting art, culture, and trade</t>
+  </si>
+  <si>
+    <t>Face external pressures and invasions during Purugupta's reign</t>
+  </si>
+  <si>
+    <t>Much of the Indian subcontinent</t>
+  </si>
+  <si>
+    <t>Reverence for Vishnu and Shiva</t>
+  </si>
+  <si>
+    <t>Advancements in mathematics and astronomy</t>
+  </si>
+  <si>
+    <t>Temples and caves</t>
+  </si>
+  <si>
+    <t>concept of zero and the decimal system</t>
+  </si>
+  <si>
+    <t>Mathematics, and metallurgy</t>
+  </si>
+  <si>
+    <t>Limited information</t>
   </si>
 </sst>
 </file>
@@ -281,17 +407,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,352 +727,934 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1:AM3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="50.6640625" customWidth="1"/>
-    <col min="8" max="8" width="52.5546875" customWidth="1"/>
-    <col min="9" max="9" width="32.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="28" max="28" width="13.88671875" customWidth="1"/>
-    <col min="29" max="29" width="9.109375" customWidth="1"/>
-    <col min="30" max="30" width="39.109375" customWidth="1"/>
-    <col min="31" max="31" width="19.109375" customWidth="1"/>
-    <col min="32" max="32" width="56.6640625" customWidth="1"/>
-    <col min="33" max="33" width="55.109375" customWidth="1"/>
-    <col min="34" max="34" width="79.77734375" customWidth="1"/>
-    <col min="35" max="35" width="70.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19" style="4" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="13.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="46.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="39.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="32.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="39.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="30.33203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="40" style="4" customWidth="1"/>
+    <col min="13" max="13" width="43.5546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="45.21875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="27.44140625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="55.109375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="42.88671875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="39.77734375" style="4" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="4"/>
+    <col min="20" max="20" width="13" style="4" customWidth="1"/>
+    <col min="21" max="35" width="8.88671875" style="4"/>
+    <col min="36" max="36" width="9.109375" style="4" customWidth="1"/>
+    <col min="37" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-543</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-413</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="4">
+        <v>6</v>
+      </c>
+      <c r="T2" s="3">
+        <v>7</v>
+      </c>
+      <c r="U2" s="4">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="V2" s="4">
+        <v>4</v>
+      </c>
+      <c r="W2" s="4">
+        <v>7</v>
+      </c>
+      <c r="X2" s="4">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="Y2" s="4">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Z2" s="4">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>90</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>8</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="30" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4">
+        <v>320</v>
+      </c>
+      <c r="D3" s="3">
+        <v>335</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" s="4">
+        <v>8</v>
+      </c>
+      <c r="T3" s="4">
+        <v>9</v>
+      </c>
+      <c r="U3" s="4">
+        <v>7</v>
+      </c>
+      <c r="V3" s="4">
+        <v>8</v>
+      </c>
+      <c r="W3" s="4">
+        <v>8</v>
+      </c>
+      <c r="X3" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>8</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>7</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="4">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ1" s="4"/>
     </row>
-    <row r="2" spans="1:36" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2">
-        <v>-543</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-413</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    <row r="4" spans="1:37" ht="30" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3">
+        <v>335</v>
+      </c>
+      <c r="D4" s="3">
+        <v>380</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>7</v>
-      </c>
-      <c r="L2">
+      <c r="F4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" s="4">
+        <v>7</v>
+      </c>
+      <c r="T4" s="4">
+        <v>8</v>
+      </c>
+      <c r="U4" s="4">
+        <v>7</v>
+      </c>
+      <c r="V4" s="4">
+        <v>8</v>
+      </c>
+      <c r="W4" s="4">
         <v>9</v>
       </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
+      <c r="X4" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>85</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
         <v>5</v>
       </c>
-      <c r="O2">
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="30" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="4">
+        <v>380</v>
+      </c>
+      <c r="D5" s="4">
+        <v>415</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" s="4">
+        <v>8</v>
+      </c>
+      <c r="T5" s="4">
+        <v>9</v>
+      </c>
+      <c r="U5" s="4">
+        <v>8</v>
+      </c>
+      <c r="V5" s="4">
+        <v>8</v>
+      </c>
+      <c r="W5" s="4">
+        <v>9</v>
+      </c>
+      <c r="X5" s="4">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>8</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>8</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>88</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="30" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="4">
+        <v>415</v>
+      </c>
+      <c r="D6" s="1">
+        <v>455</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" s="4">
+        <v>7</v>
+      </c>
+      <c r="T6" s="4">
+        <v>8</v>
+      </c>
+      <c r="U6" s="4">
+        <v>7</v>
+      </c>
+      <c r="V6" s="4">
+        <v>7</v>
+      </c>
+      <c r="W6" s="4">
+        <v>8</v>
+      </c>
+      <c r="X6" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>86</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
         <v>6</v>
       </c>
-      <c r="P2">
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="30" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="4">
+        <v>455</v>
+      </c>
+      <c r="D7" s="4">
+        <v>467</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S7" s="4">
+        <v>7</v>
+      </c>
+      <c r="T7" s="4">
         <v>6</v>
       </c>
-      <c r="Q2">
+      <c r="U7" s="4">
         <v>6</v>
       </c>
-      <c r="R2">
+      <c r="V7" s="4">
+        <v>6</v>
+      </c>
+      <c r="W7" s="4">
+        <v>7</v>
+      </c>
+      <c r="X7" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>7</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>85</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="30" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="4">
+        <v>467</v>
+      </c>
+      <c r="D8" s="4">
+        <v>473</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8" s="4">
+        <v>7</v>
+      </c>
+      <c r="T8" s="4">
+        <v>7</v>
+      </c>
+      <c r="U8" s="4">
+        <v>6</v>
+      </c>
+      <c r="V8" s="4">
         <v>5</v>
       </c>
-      <c r="S2">
-        <v>5</v>
-      </c>
-      <c r="T2">
-        <v>90</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>8</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>320</v>
-      </c>
-      <c r="C3" s="2">
-        <v>550</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3">
+      <c r="W8" s="4">
+        <v>7</v>
+      </c>
+      <c r="X8" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y8" s="4">
         <v>9</v>
       </c>
-      <c r="K3">
-        <v>8</v>
-      </c>
-      <c r="L3">
-        <v>9</v>
-      </c>
-      <c r="M3">
-        <v>8</v>
-      </c>
-      <c r="N3">
-        <v>7</v>
-      </c>
-      <c r="O3">
-        <v>7</v>
-      </c>
-      <c r="P3">
-        <v>8</v>
-      </c>
-      <c r="Q3">
-        <v>7</v>
-      </c>
-      <c r="R3">
-        <v>8</v>
-      </c>
-      <c r="S3">
-        <v>7</v>
-      </c>
-      <c r="T3">
-        <v>90</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
+      <c r="Z8" s="4">
+        <v>8</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>93</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
         <v>3</v>
       </c>
-      <c r="W3">
-        <v>3</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>4</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>59</v>
+      <c r="AH8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/store.xlsx
+++ b/store.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Histline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E991D02D-524F-44D7-B821-16F892F24362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1733F1-BBDF-4C31-B7D2-F45F1BB65C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="152">
   <si>
     <t>Dynasty</t>
   </si>
@@ -121,9 +132,6 @@
     <t>Employment</t>
   </si>
   <si>
-    <t>Magadha Empire</t>
-  </si>
-  <si>
     <t>Pataliputra</t>
   </si>
   <si>
@@ -133,30 +141,9 @@
     <t>Bimbisara</t>
   </si>
   <si>
-    <t>Political development in the Gangetic plain</t>
-  </si>
-  <si>
-    <t>Spread of Buddhism</t>
-  </si>
-  <si>
     <t>Modern-day northern India</t>
   </si>
   <si>
-    <t>Agriculture, trade, and craftsmanship</t>
-  </si>
-  <si>
-    <t>Vedic rituals and religious ceremonies</t>
-  </si>
-  <si>
-    <t>Social inequalities</t>
-  </si>
-  <si>
-    <t>Meats and luxurious foods, grains and vegetables</t>
-  </si>
-  <si>
-    <t>Neighboring states</t>
-  </si>
-  <si>
     <t>Hindu rituals</t>
   </si>
   <si>
@@ -178,12 +165,6 @@
     <t>Inventions</t>
   </si>
   <si>
-    <t>Ashoka's pillars, Nalanda University complex</t>
-  </si>
-  <si>
-    <t>Mathematics, astronomy,  Mauryan Pillars</t>
-  </si>
-  <si>
     <t>Established the Gupta dynasty</t>
   </si>
   <si>
@@ -322,20 +303,197 @@
     <t>Temples and caves</t>
   </si>
   <si>
-    <t>concept of zero and the decimal system</t>
-  </si>
-  <si>
     <t>Mathematics, and metallurgy</t>
   </si>
   <si>
     <t>Limited information</t>
+  </si>
+  <si>
+    <t>Budhagupta</t>
+  </si>
+  <si>
+    <t>Gupta prosperity, patronage of the arts and sciences</t>
+  </si>
+  <si>
+    <t>Not extensively documented</t>
+  </si>
+  <si>
+    <t>Reverence for Vishnu and Shiva and others</t>
+  </si>
+  <si>
+    <t>Not provide significant details</t>
+  </si>
+  <si>
+    <t>Do not provide significant details</t>
+  </si>
+  <si>
+    <t>Concept of zero and the decimal system</t>
+  </si>
+  <si>
+    <t>Temples and caves, Intricate carvings</t>
+  </si>
+  <si>
+    <t>Attempts to defend the empire against the Pushyamitras and Hunas</t>
+  </si>
+  <si>
+    <t>Narasimhagupta Baladitya</t>
+  </si>
+  <si>
+    <t>Consolidate Gupta rule in the face of external pressures and invasions</t>
+  </si>
+  <si>
+    <t>Faced challenges from the Pushyamitras and Hunas</t>
+  </si>
+  <si>
+    <t>Gonds, Bhils, Chero, Munda, Santhal, Bhutia, Khasi, Garo, Naga, Meitei (Manipuri), Bodo, Kuki, Ahom, Kodava, Toda.</t>
+  </si>
+  <si>
+    <t>Kumaragupta III</t>
+  </si>
+  <si>
+    <t>Mathematics and astronomy</t>
+  </si>
+  <si>
+    <t>External invaders</t>
+  </si>
+  <si>
+    <t>Conflicts with the Pushyamitras and Hunas</t>
+  </si>
+  <si>
+    <t>Temples and sculptures showcasing Gupta architecture</t>
+  </si>
+  <si>
+    <t>Haryanka Dynasty</t>
+  </si>
+  <si>
+    <t>Girivrajapura,  (later shifted to Pataliputra)</t>
+  </si>
+  <si>
+    <t>Present-day Bihar</t>
+  </si>
+  <si>
+    <t>Expanding and consolidating the Magadhan kingdom</t>
+  </si>
+  <si>
+    <t>Agriculture and trade</t>
+  </si>
+  <si>
+    <t>Gautama Buddha being a notable ritual</t>
+  </si>
+  <si>
+    <t>Grains, vegetables, fruits, and dairy products</t>
+  </si>
+  <si>
+    <t>Growth of cities and urban centers</t>
+  </si>
+  <si>
+    <t>Not well-documented</t>
+  </si>
+  <si>
+    <t>Significant milestones in the life of Gautama Buddha</t>
+  </si>
+  <si>
+    <t>ilitary campaigns to expand his kingdom's boundaries,gricultural techniques and crop cultivation.</t>
+  </si>
+  <si>
+    <t>Gonds, Bhils, Munda, and others</t>
+  </si>
+  <si>
+    <t>Governance and societal challenges,Gave way to the Shishunaga Dynasty</t>
+  </si>
+  <si>
+    <t>Military conquests, expanding the Magadha kingdom</t>
+  </si>
+  <si>
+    <t>Udayabhadra</t>
+  </si>
+  <si>
+    <t>Buddhism</t>
+  </si>
+  <si>
+    <t>Ajatashatru's Stupa</t>
+  </si>
+  <si>
+    <t>Military campaigns</t>
+  </si>
+  <si>
+    <t>Agriculture and urban development</t>
+  </si>
+  <si>
+    <t>Governance and societal challenges</t>
+  </si>
+  <si>
+    <t>Udayin</t>
+  </si>
+  <si>
+    <t>Aniruddha</t>
+  </si>
+  <si>
+    <t>Consolidating the Magadhan kingdom</t>
+  </si>
+  <si>
+    <t>Captured the Avanti capital, Ujjain</t>
+  </si>
+  <si>
+    <t>Not be well-known</t>
+  </si>
+  <si>
+    <t>Against Avanti and the capture of Ujjain</t>
+  </si>
+  <si>
+    <t>Shishunaga</t>
+  </si>
+  <si>
+    <t>Shishunaga Dynasty</t>
+  </si>
+  <si>
+    <t>Girivraja</t>
+  </si>
+  <si>
+    <t>Kalashoka</t>
+  </si>
+  <si>
+    <t>Founder of the Shishunaga Dynasty and the first ruler to unify the Magadha region after the decline of the Haryanka Dynasty</t>
+  </si>
+  <si>
+    <t>Decline of the Haryanka Dynasty</t>
+  </si>
+  <si>
+    <t>Governance of Magadha</t>
+  </si>
+  <si>
+    <t>Not widely documented</t>
+  </si>
+  <si>
+    <t>Nandivardhana</t>
+  </si>
+  <si>
+    <t>Nanda Dynasty</t>
+  </si>
+  <si>
+    <t>Mahapadma Nanda</t>
+  </si>
+  <si>
+    <t>Overthrow of the Magadha king</t>
+  </si>
+  <si>
+    <t>Founding the Nanda Dynasty</t>
+  </si>
+  <si>
+    <t>Ugrasena</t>
+  </si>
+  <si>
+    <t>Magadha region, parts of present-day Bihar</t>
+  </si>
+  <si>
+    <t>Hinduism and Buddhism</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +516,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF13343B"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -407,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -424,6 +588,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,32 +898,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19" style="4" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="20.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="8.88671875" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="46.33203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="39.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="32.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" style="4" customWidth="1"/>
     <col min="10" max="10" width="39.109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="30.33203125" style="4" customWidth="1"/>
     <col min="12" max="12" width="40" style="4" customWidth="1"/>
     <col min="13" max="13" width="43.5546875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="45.21875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="27.44140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="52.88671875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="70.44140625" style="4" customWidth="1"/>
     <col min="16" max="16" width="55.109375" style="4" customWidth="1"/>
     <col min="17" max="17" width="42.88671875" style="4" customWidth="1"/>
     <col min="18" max="18" width="39.77734375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="4"/>
+    <col min="19" max="19" width="10.6640625" style="4" customWidth="1"/>
     <col min="20" max="20" width="13" style="4" customWidth="1"/>
     <col min="21" max="35" width="8.88671875" style="4"/>
     <col min="36" max="36" width="9.109375" style="4" customWidth="1"/>
@@ -797,10 +969,10 @@
         <v>32</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>26</v>
@@ -809,10 +981,10 @@
         <v>30</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>15</v>
@@ -872,99 +1044,105 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:37" ht="30" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4">
+        <v>320</v>
+      </c>
+      <c r="D2" s="3">
+        <v>335</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4">
-        <v>-543</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-413</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>43</v>
+        <v>77</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="S2" s="4">
-        <v>6</v>
-      </c>
-      <c r="T2" s="3">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="T2" s="4">
+        <v>9</v>
       </c>
       <c r="U2" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V2" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W2" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X2" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y2" s="4">
         <v>9</v>
       </c>
       <c r="Z2" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA2" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB2" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC2" s="4">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AD2" s="4">
         <v>0</v>
       </c>
       <c r="AE2" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AF2" s="4">
         <v>0</v>
       </c>
       <c r="AG2" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH2" s="4">
         <v>0</v>
@@ -976,108 +1154,108 @@
         <v>0</v>
       </c>
       <c r="AK2" s="4">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="30" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="4">
-        <v>320</v>
+        <v>38</v>
+      </c>
+      <c r="C3" s="3">
+        <v>335</v>
       </c>
       <c r="D3" s="3">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>58</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="S3" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T3" s="4">
+        <v>8</v>
+      </c>
+      <c r="U3" s="4">
+        <v>7</v>
+      </c>
+      <c r="V3" s="4">
+        <v>8</v>
+      </c>
+      <c r="W3" s="4">
         <v>9</v>
       </c>
-      <c r="U3" s="4">
-        <v>7</v>
-      </c>
-      <c r="V3" s="4">
-        <v>8</v>
-      </c>
-      <c r="W3" s="4">
-        <v>8</v>
-      </c>
       <c r="X3" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y3" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z3" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA3" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB3" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC3" s="4">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AD3" s="4">
         <v>0</v>
       </c>
       <c r="AE3" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AF3" s="4">
         <v>0</v>
       </c>
       <c r="AG3" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AH3" s="4">
         <v>0</v>
@@ -1089,72 +1267,72 @@
         <v>0</v>
       </c>
       <c r="AK3" s="4">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="30" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="3">
-        <v>335</v>
-      </c>
-      <c r="D4" s="3">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="4">
         <v>380</v>
       </c>
+      <c r="D4" s="4">
+        <v>415</v>
+      </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>61</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="O4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="P4" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="S4" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T4" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U4" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V4" s="4">
         <v>8</v>
@@ -1163,147 +1341,147 @@
         <v>9</v>
       </c>
       <c r="X4" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y4" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z4" s="4">
         <v>8</v>
       </c>
       <c r="AA4" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB4" s="4">
         <v>8</v>
       </c>
       <c r="AC4" s="4">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD4" s="4">
         <v>0</v>
       </c>
       <c r="AE4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="45" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="4">
+        <v>415</v>
+      </c>
+      <c r="D5" s="3">
+        <v>455</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S5" s="4">
+        <v>7</v>
+      </c>
+      <c r="T5" s="4">
+        <v>8</v>
+      </c>
+      <c r="U5" s="4">
+        <v>7</v>
+      </c>
+      <c r="V5" s="4">
+        <v>7</v>
+      </c>
+      <c r="W5" s="4">
+        <v>8</v>
+      </c>
+      <c r="X5" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>86</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
         <v>3</v>
       </c>
-      <c r="AF4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>5</v>
-      </c>
-      <c r="AH4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" ht="30" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="4">
-        <v>380</v>
-      </c>
-      <c r="D5" s="4">
-        <v>415</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="S5" s="4">
-        <v>8</v>
-      </c>
-      <c r="T5" s="4">
-        <v>9</v>
-      </c>
-      <c r="U5" s="4">
-        <v>8</v>
-      </c>
-      <c r="V5" s="4">
-        <v>8</v>
-      </c>
-      <c r="W5" s="4">
-        <v>9</v>
-      </c>
-      <c r="X5" s="4">
-        <v>9</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>8</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>8</v>
-      </c>
-      <c r="AB5" s="4">
-        <v>8</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>88</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>2</v>
-      </c>
       <c r="AF5" s="4">
         <v>0</v>
       </c>
       <c r="AG5" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH5" s="4">
         <v>0</v>
@@ -1320,76 +1498,76 @@
     </row>
     <row r="6" spans="1:37" ht="30" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C6" s="4">
-        <v>415</v>
-      </c>
-      <c r="D6" s="1">
         <v>455</v>
       </c>
+      <c r="D6" s="4">
+        <v>467</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="Q6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="R6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="S6" s="4">
         <v>7</v>
       </c>
       <c r="T6" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U6" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V6" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W6" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X6" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y6" s="4">
         <v>8</v>
@@ -1404,7 +1582,7 @@
         <v>7</v>
       </c>
       <c r="AC6" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD6" s="4">
         <v>0</v>
@@ -1428,109 +1606,109 @@
         <v>0</v>
       </c>
       <c r="AK6" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="30" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C7" s="4">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="D7" s="4">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>82</v>
+        <v>33</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>89</v>
+      <c r="R7" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="S7" s="4">
         <v>7</v>
       </c>
       <c r="T7" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U7" s="4">
         <v>6</v>
       </c>
       <c r="V7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W7" s="4">
         <v>7</v>
       </c>
       <c r="X7" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y7" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z7" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA7" s="4">
         <v>7</v>
       </c>
       <c r="AB7" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC7" s="4">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AD7" s="4">
         <v>0</v>
       </c>
       <c r="AE7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4">
         <v>3</v>
       </c>
-      <c r="AF7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="4">
-        <v>6</v>
-      </c>
       <c r="AH7" s="4">
         <v>0</v>
       </c>
@@ -1541,63 +1719,63 @@
         <v>0</v>
       </c>
       <c r="AK7" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="30" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>40</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C8" s="4">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D8" s="4">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="L8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>102</v>
+      <c r="O8" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="S8" s="4">
         <v>7</v>
@@ -1656,6 +1834,922 @@
       <c r="AK8" s="4">
         <v>2</v>
       </c>
+    </row>
+    <row r="9" spans="1:37" ht="30" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="4">
+        <v>476</v>
+      </c>
+      <c r="D9" s="4">
+        <v>495</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9" s="4">
+        <v>7</v>
+      </c>
+      <c r="T9" s="4">
+        <v>6</v>
+      </c>
+      <c r="U9" s="4">
+        <v>6</v>
+      </c>
+      <c r="V9" s="4">
+        <v>5</v>
+      </c>
+      <c r="W9" s="4">
+        <v>7</v>
+      </c>
+      <c r="X9" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>6</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>6</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>90</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="30" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="4">
+        <v>495</v>
+      </c>
+      <c r="D10" s="4">
+        <v>530</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10" s="4">
+        <v>7</v>
+      </c>
+      <c r="T10" s="4">
+        <v>7</v>
+      </c>
+      <c r="U10" s="4">
+        <v>6</v>
+      </c>
+      <c r="V10" s="4">
+        <v>6</v>
+      </c>
+      <c r="W10" s="4">
+        <v>7</v>
+      </c>
+      <c r="X10" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>7</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>85</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="45" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-543</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-491</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S11" s="4">
+        <v>8</v>
+      </c>
+      <c r="T11" s="3">
+        <v>7</v>
+      </c>
+      <c r="U11" s="4">
+        <v>6</v>
+      </c>
+      <c r="V11" s="4">
+        <v>5</v>
+      </c>
+      <c r="W11" s="4">
+        <v>8</v>
+      </c>
+      <c r="X11" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>80</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="30" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-491</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-461</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S12" s="4">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3">
+        <v>7</v>
+      </c>
+      <c r="U12" s="4">
+        <v>6</v>
+      </c>
+      <c r="V12" s="4">
+        <v>5</v>
+      </c>
+      <c r="W12" s="4">
+        <v>8</v>
+      </c>
+      <c r="X12" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>80</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>10</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-460</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-440</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" s="4">
+        <v>7</v>
+      </c>
+      <c r="T13" s="4">
+        <v>6</v>
+      </c>
+      <c r="U13" s="4">
+        <v>5</v>
+      </c>
+      <c r="V13" s="4">
+        <v>4</v>
+      </c>
+      <c r="W13" s="4">
+        <v>7</v>
+      </c>
+      <c r="X13" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>7</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>6</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>6</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>6</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>75</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>15</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="43.8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-413</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-395</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S14" s="4">
+        <v>6</v>
+      </c>
+      <c r="T14" s="4">
+        <v>6</v>
+      </c>
+      <c r="U14" s="4">
+        <v>5</v>
+      </c>
+      <c r="V14" s="4">
+        <v>4</v>
+      </c>
+      <c r="W14" s="4">
+        <v>6</v>
+      </c>
+      <c r="X14" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>80</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>15</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-395</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-375</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S15" s="4">
+        <v>6</v>
+      </c>
+      <c r="T15" s="4">
+        <v>6</v>
+      </c>
+      <c r="U15" s="4">
+        <v>5</v>
+      </c>
+      <c r="V15" s="4">
+        <v>4</v>
+      </c>
+      <c r="W15" s="4">
+        <v>6</v>
+      </c>
+      <c r="X15" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>6</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>5</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>75</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>20</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="4">
+        <v>-345</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-329</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S16" s="4">
+        <v>5</v>
+      </c>
+      <c r="T16" s="4">
+        <v>6</v>
+      </c>
+      <c r="U16" s="4">
+        <v>4</v>
+      </c>
+      <c r="V16" s="4">
+        <v>4</v>
+      </c>
+      <c r="W16" s="4">
+        <v>7</v>
+      </c>
+      <c r="X16" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>6</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>78</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>17</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/store.xlsx
+++ b/store.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Histline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1733F1-BBDF-4C31-B7D2-F45F1BB65C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480C1F4C-78E4-43FF-A1CD-58BB68157A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="283">
   <si>
     <t>Dynasty</t>
   </si>
@@ -474,26 +474,419 @@
     <t>Mahapadma Nanda</t>
   </si>
   <si>
-    <t>Overthrow of the Magadha king</t>
-  </si>
-  <si>
-    <t>Founding the Nanda Dynasty</t>
-  </si>
-  <si>
-    <t>Ugrasena</t>
-  </si>
-  <si>
     <t>Magadha region, parts of present-day Bihar</t>
   </si>
   <si>
     <t>Hinduism and Buddhism</t>
+  </si>
+  <si>
+    <t>Dhana Nanda</t>
+  </si>
+  <si>
+    <t>Overthrow of the Shishunag Mahanandin king, Significant shift in the political landscape of ancient India, with a focus on centralized power</t>
+  </si>
+  <si>
+    <t>Against Ikshvakus, Pancalas, Kashis, Haihayas, Kalingas, Ashmakas, Kurus, Maithilas, Shurasenas, and Vitihotras</t>
+  </si>
+  <si>
+    <t>Ruthless conquests</t>
+  </si>
+  <si>
+    <t>Founding the Nanda Dynasty, Earliest centralized empires in ancient India, “destroyer of all Kshatriyas”</t>
+  </si>
+  <si>
+    <t>Settled agricultural technology and growing use of iron</t>
+  </si>
+  <si>
+    <t>Agriculture and urban development, 20,000 cavalry, 200,000 infantry, 2,000 quadriga (chariots), and 3,000 elephants</t>
+  </si>
+  <si>
+    <t>Chandragupta Maurya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuing the rule of the Nanda Dynasty </t>
+  </si>
+  <si>
+    <t>Witnessed the rise of Chandragupta Maurya</t>
+  </si>
+  <si>
+    <t>Northern India</t>
+  </si>
+  <si>
+    <t>Heavy taxation and exploitation of the common people</t>
+  </si>
+  <si>
+    <t>3,000 war elephants, 20,000 cavalry, 2000 war chariots, and 2 lakh infantry</t>
+  </si>
+  <si>
+    <t>Against Chandragupta and local rulers</t>
+  </si>
+  <si>
+    <t>Kosala Kingdom, Kalinga Kingdom, Gandhara Kingdom, Vatsa Kingdom, Avanti Kingdom</t>
+  </si>
+  <si>
+    <t>Vijayanagara Empire</t>
+  </si>
+  <si>
+    <t>Harihara I</t>
+  </si>
+  <si>
+    <t>Bukka Raya I</t>
+  </si>
+  <si>
+    <t>Harihara I and his brother founded the Vijayanagara Empire, a powerful and long-lasting Hindu kingdom in South India.</t>
+  </si>
+  <si>
+    <t>Vijaynagar</t>
+  </si>
+  <si>
+    <t>Bahmani Kingdom</t>
+  </si>
+  <si>
+    <t>Hoysala Dynasty</t>
+  </si>
+  <si>
+    <t>Muhammad Tughlaq captured and made them accept Islam. Under Vidyaranya, They became hindu again. Vijayanagar conflict with Bahmani Empire</t>
+  </si>
+  <si>
+    <t>present-day Karnataka, Andhra Pradesh, and parts of Tamil Nadu and Telangana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinduism </t>
+  </si>
+  <si>
+    <t>Challenges related to governance, taxation, and regional conflicts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virupaksha Temple and Vitthala Temple in Hampi </t>
+  </si>
+  <si>
+    <t>Sculpture in the Vijayanagara style</t>
+  </si>
+  <si>
+    <t>Resist external threats</t>
+  </si>
+  <si>
+    <t>Rice, lentils, vegetables, fruits, and various spices. Meat consumption was limited, with a focus on vegetarian cuisine</t>
+  </si>
+  <si>
+    <t>Madurai Sultanate, Bahmani Sultanate, Hoysala Empire, Pandya Dynasty</t>
+  </si>
+  <si>
+    <t>Cultural and architectural advancements</t>
+  </si>
+  <si>
+    <t>Harihara II</t>
+  </si>
+  <si>
+    <t>Wresting Belgaum and Goa</t>
+  </si>
+  <si>
+    <t>Expedition against Sri Lanka</t>
+  </si>
+  <si>
+    <t>Deva Raya I</t>
+  </si>
+  <si>
+    <t>Deva Raya's daughter's marriage was celebrated with great pomp and splendour show.</t>
+  </si>
+  <si>
+    <t>Fought against Firuz Shah over Tungabhadra Doab and Lost battle. Paid Firuz Shah 10 Lac Huns and pearls and Elephants. Married his Daughter to Firuz and Given Bankapur as dowry. But shattered defeat on Firuz Shah over Reddi Territory</t>
+  </si>
+  <si>
+    <t>Flourishing of art and peace.</t>
+  </si>
+  <si>
+    <t>Created Dam on Tungabhadra River to bring Canals into city and also on Haridra river.</t>
+  </si>
+  <si>
+    <t>Deva Raya II</t>
+  </si>
+  <si>
+    <t>Imported good mounts and Charged high prices from Arabs.</t>
+  </si>
+  <si>
+    <t>3 Hard battles Fought Against Bahmani to recover Mudkal, Bankapur etc, south of Krishna river, but in the end both agreed to the existing frontier.</t>
+  </si>
+  <si>
+    <t>Greatest Vijaynagar Ruler. Received tribute from Pulicut, Pegu, Tenasserim, Sri Lankan Rulers. Extreme wealthy</t>
+  </si>
+  <si>
+    <t>Standed a 60,000 Archers, 80,000 cavalry and 2,00,00 army. Made Land very fertile. Having huge empire some writer says city was larger than Rome.</t>
+  </si>
+  <si>
+    <t>Firuz Shah Bahmani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulbarga </t>
+  </si>
+  <si>
+    <t>Reddi Empire</t>
+  </si>
+  <si>
+    <t>Good Calligraphist and Poet and font of Religios and Natural Science. Multilingual. Spent time with Witty Nobles</t>
+  </si>
+  <si>
+    <t>Built Observatory near Daulatabaad.</t>
+  </si>
+  <si>
+    <t>Induction of Hindu in Administration on Large Scale. Deccani Brahman Dominant. Encouraged Astronomy. Controlled Chaul and Dabhol Port.</t>
+  </si>
+  <si>
+    <t>Fought and won against Narsing Rai, Gond Raja of Kherla. In 1419 Firuz Defeated by Dev Raya I on Krishna-Godavari basin.</t>
+  </si>
+  <si>
+    <t>Ahmad Shah I</t>
+  </si>
+  <si>
+    <t>Bidar</t>
+  </si>
+  <si>
+    <t>Humayun Shah</t>
+  </si>
+  <si>
+    <t>After Annexation of Warangal, He turned towards Malwa, Gondwana and Konkan.</t>
+  </si>
+  <si>
+    <t>Revenged against Warangal and Reached up to Kanchi, Western Coastal Area including Dabhol and Goa.</t>
+  </si>
+  <si>
+    <t>Fought Warangal King and Killed him as He earlier helped Vijayanagar. Series of Wars against Mahmud Khalji over Berar</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Expanded his territory with Prime Minister Mahmud Gawan. Introduced many internal reforms. Divided Kingdom into 8 Provinces or Tarafs governed by Tarafdars. Paid in cash or Jagir.</t>
+  </si>
+  <si>
+    <t>Built College in capital. Patronage of arts</t>
+  </si>
+  <si>
+    <t>Bukka I</t>
+  </si>
+  <si>
+    <t>Saluva Dynasty</t>
+  </si>
+  <si>
+    <t>Tuluva Dynasty</t>
+  </si>
+  <si>
+    <t>Krishna Deva Raya</t>
+  </si>
+  <si>
+    <t>Considered Greatest of Vijayanagar. Re-Established Law and Order and dealt with old Rivals of Vijayanagar(Bahmanis and Odisha) and new Threat Portuguese.</t>
+  </si>
+  <si>
+    <t>Delhi Sultanate</t>
+  </si>
+  <si>
+    <t>Qutb ud-Din Aibak</t>
+  </si>
+  <si>
+    <t>Aram Shah</t>
+  </si>
+  <si>
+    <t>Ala ud-Din Masud</t>
+  </si>
+  <si>
+    <t>Shams ud-Din Iltutmish</t>
+  </si>
+  <si>
+    <t>Razia Sultana</t>
+  </si>
+  <si>
+    <t>Muiz ud-Din Bahram</t>
+  </si>
+  <si>
+    <t>Nasir ud-Din Mahmud</t>
+  </si>
+  <si>
+    <t>Ghiyas ud-Din Balban</t>
+  </si>
+  <si>
+    <t>Muiz ud-Din Qaiqabad</t>
+  </si>
+  <si>
+    <t>Jalal ud-Din Firuz Khalji</t>
+  </si>
+  <si>
+    <t>Alauddin Khalji</t>
+  </si>
+  <si>
+    <t>Qutb ud-Din Mubarak Shah Khalji</t>
+  </si>
+  <si>
+    <t>Nasir ud-Din Muhammad Shah Tughlaq</t>
+  </si>
+  <si>
+    <t>Muhammad bin Tughlaq</t>
+  </si>
+  <si>
+    <t>Firuz Shah Tughlaq</t>
+  </si>
+  <si>
+    <t>Ghiyas ud-Din Tughlaq II</t>
+  </si>
+  <si>
+    <t>Abu Bakr Shah</t>
+  </si>
+  <si>
+    <t>Mahmud Nasir ud-Din</t>
+  </si>
+  <si>
+    <t>Ala ud-Din Sikandar Shah</t>
+  </si>
+  <si>
+    <t>Khizr Khan</t>
+  </si>
+  <si>
+    <t>Mubarak Shah</t>
+  </si>
+  <si>
+    <t>Muhammad Shah</t>
+  </si>
+  <si>
+    <t>Alam Shah</t>
+  </si>
+  <si>
+    <t>Bahlul Khan Lodi</t>
+  </si>
+  <si>
+    <t>Sikandar Lodi</t>
+  </si>
+  <si>
+    <t>Ibrahim Lodi</t>
+  </si>
+  <si>
+    <t>Narasimha Saluva II</t>
+  </si>
+  <si>
+    <t>Narasimha Saluva I</t>
+  </si>
+  <si>
+    <t>Vira Narasimha</t>
+  </si>
+  <si>
+    <t>Achyutaraya</t>
+  </si>
+  <si>
+    <t>Venkata I </t>
+  </si>
+  <si>
+    <t>Achyuta</t>
+  </si>
+  <si>
+    <t>Aravidu Dynasty</t>
+  </si>
+  <si>
+    <t>Tirumalaraya </t>
+  </si>
+  <si>
+    <t>Sri Ranga I</t>
+  </si>
+  <si>
+    <t>Venkata II</t>
+  </si>
+  <si>
+    <t>Sriranga II </t>
+  </si>
+  <si>
+    <t>Venkata III</t>
+  </si>
+  <si>
+    <t>Rangaraya III</t>
+  </si>
+  <si>
+    <t>Ramaraya</t>
+  </si>
+  <si>
+    <t>Venkata IV</t>
+  </si>
+  <si>
+    <t>Sriranga III</t>
+  </si>
+  <si>
+    <t>Sangama Dynasty</t>
+  </si>
+  <si>
+    <t>Bukka II</t>
+  </si>
+  <si>
+    <t>Devaraya I</t>
+  </si>
+  <si>
+    <t>Vira Vijaya</t>
+  </si>
+  <si>
+    <t>Devaraya II</t>
+  </si>
+  <si>
+    <t>Mallikarjuna</t>
+  </si>
+  <si>
+    <t>Virupaksha I</t>
+  </si>
+  <si>
+    <t>Veera Ballala III</t>
+  </si>
+  <si>
+    <t>Nripa Kama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinayaditya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ereyanga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veera Ballala I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishnuvardhana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veera Ballala II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narasimha I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narasimha II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vira Someshwara </t>
+  </si>
+  <si>
+    <t>Narasimha III</t>
+  </si>
+  <si>
+    <t>Veera Ramanatha</t>
+  </si>
+  <si>
+    <t>Prolaya Vema Reddi</t>
+  </si>
+  <si>
+    <t>Anavota Reddi</t>
+  </si>
+  <si>
+    <t>Anapota Reddi</t>
+  </si>
+  <si>
+    <t>Kataya Vema Reddi</t>
+  </si>
+  <si>
+    <t>Kumaragiri Reddi</t>
+  </si>
+  <si>
+    <t>Narasimha Reddi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +909,18 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF13343B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -571,7 +976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -593,9 +998,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,18 +1308,53 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{B4DCD32A-D323-4D79-9897-E155B0CEDFE2}">
+  <we:reference id="wa200005271" version="2.0.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200005271" version="2.0.0.0" store="wa200005271" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_AI_FILL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_LIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_ASK</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_FORMAT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_EXTRACT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_TRANSLATE</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AK121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="AF19" sqref="AF19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="48" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="4"/>
     <col min="4" max="4" width="8.88671875" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="4" customWidth="1"/>
@@ -2626,7 +3073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" ht="58.2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>145</v>
       </c>
@@ -2637,46 +3084,46 @@
         <v>-345</v>
       </c>
       <c r="D16" s="4">
-        <v>-329</v>
+        <v>-321</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="1" t="s">
         <v>149</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="K16" s="3" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>114</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>134</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>116</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>121</v>
@@ -2739,17 +3186,1566 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
+    <row r="17" spans="1:37" ht="45" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-321</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-296</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="S17" s="4">
+        <v>5</v>
+      </c>
+      <c r="T17" s="4">
+        <v>4</v>
+      </c>
+      <c r="U17" s="4">
+        <v>3</v>
+      </c>
+      <c r="V17" s="4">
+        <v>2</v>
+      </c>
+      <c r="W17" s="4">
+        <v>4</v>
+      </c>
+      <c r="X17" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>90</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" ht="58.2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1336</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1356</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="S18" s="4">
+        <v>5</v>
+      </c>
+      <c r="T18" s="4">
+        <v>6</v>
+      </c>
+      <c r="U18" s="4">
+        <v>4</v>
+      </c>
+      <c r="V18" s="4">
+        <v>5</v>
+      </c>
+      <c r="W18" s="4">
+        <v>5</v>
+      </c>
+      <c r="X18" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>75</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>15</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1377</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1404</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R19" s="9"/>
+      <c r="S19" s="4">
+        <v>5</v>
+      </c>
+      <c r="T19" s="4">
+        <v>6</v>
+      </c>
+      <c r="U19" s="4">
+        <v>4</v>
+      </c>
+      <c r="V19" s="4">
+        <v>5</v>
+      </c>
+      <c r="W19" s="4">
+        <v>5</v>
+      </c>
+      <c r="X19" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>80</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" ht="43.8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1404</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1422</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="R20" s="9"/>
+      <c r="S20" s="4">
+        <v>5</v>
+      </c>
+      <c r="T20" s="4">
+        <v>6</v>
+      </c>
+      <c r="U20" s="4">
+        <v>4</v>
+      </c>
+      <c r="V20" s="4">
+        <v>5</v>
+      </c>
+      <c r="W20" s="4">
+        <v>5</v>
+      </c>
+      <c r="X20" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>80</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="58.2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1425</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1446</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R21" s="9"/>
+      <c r="S21" s="4">
+        <v>5</v>
+      </c>
+      <c r="T21" s="4">
+        <v>6</v>
+      </c>
+      <c r="U21" s="4">
+        <v>4</v>
+      </c>
+      <c r="V21" s="4">
+        <v>5</v>
+      </c>
+      <c r="W21" s="4">
+        <v>5</v>
+      </c>
+      <c r="X21" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>80</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>10</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="43.8" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1397</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1422</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="1:37" ht="58.2" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1422</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1436</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="1:37" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1206</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1210</v>
+      </c>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="1:37" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1210</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1211</v>
+      </c>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="1:37" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1211</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1236</v>
+      </c>
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" spans="1:37" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1236</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1240</v>
+      </c>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="1:37" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1240</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1242</v>
+      </c>
+      <c r="R28" s="9"/>
+    </row>
+    <row r="29" spans="1:37" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1242</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1246</v>
+      </c>
+      <c r="R29" s="9"/>
+    </row>
+    <row r="30" spans="1:37" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1246</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1266</v>
+      </c>
+      <c r="R30" s="9"/>
+    </row>
+    <row r="31" spans="1:37" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1266</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1287</v>
+      </c>
+      <c r="R31" s="9"/>
+    </row>
+    <row r="32" spans="1:37" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1287</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1290</v>
+      </c>
+      <c r="R32" s="9"/>
+    </row>
+    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1290</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1296</v>
+      </c>
+      <c r="R33" s="9"/>
+    </row>
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1296</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1316</v>
+      </c>
+      <c r="R34" s="9"/>
+    </row>
+    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1316</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1320</v>
+      </c>
+      <c r="R35" s="9"/>
+    </row>
+    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1320</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1325</v>
+      </c>
+      <c r="R36" s="9"/>
+    </row>
+    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1325</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1351</v>
+      </c>
+      <c r="R37" s="9"/>
+    </row>
+    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1351</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1388</v>
+      </c>
+      <c r="R38" s="9"/>
+    </row>
+    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1388</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1389</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1390</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1394</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1395</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1413</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1421</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1434</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1445</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1451</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1489</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1517</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="7">
+        <v>1485</v>
+      </c>
+      <c r="D51" s="7">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C52" s="7">
+        <v>1491</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1505</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1509</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1530</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1530</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1542</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1543</v>
+      </c>
+      <c r="D57" s="7">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="7">
+        <v>1565</v>
+      </c>
+      <c r="D58" s="7">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1570</v>
+      </c>
+      <c r="D59" s="7">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A60" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C60" s="7">
+        <v>1578</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A61" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1586</v>
+      </c>
+      <c r="D61" s="7">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A62" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1614</v>
+      </c>
+      <c r="D62" s="7">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A63" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1617</v>
+      </c>
+      <c r="D63" s="7">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A64" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C64" s="7">
+        <v>1619</v>
+      </c>
+      <c r="D64" s="7">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A65" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" s="7">
+        <v>1642</v>
+      </c>
+      <c r="D65" s="7">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A66" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" s="7">
+        <v>1652</v>
+      </c>
+      <c r="D66" s="7">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A67" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1336</v>
+      </c>
+      <c r="D67" s="7">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" s="7">
+        <v>1356</v>
+      </c>
+      <c r="D68" s="7">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A69" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="7">
+        <v>1377</v>
+      </c>
+      <c r="D69" s="7">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A70" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C70" s="7">
+        <v>1404</v>
+      </c>
+      <c r="D70" s="7">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A71" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1406</v>
+      </c>
+      <c r="D71" s="7">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A72" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1422</v>
+      </c>
+      <c r="D72" s="7">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A73" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C73" s="7">
+        <v>1424</v>
+      </c>
+      <c r="D73" s="7">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A74" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" s="7">
+        <v>1446</v>
+      </c>
+      <c r="D74" s="7">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A75" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1465</v>
+      </c>
+      <c r="D75" s="7">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A76" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C76" s="1">
+        <v>950</v>
+      </c>
+      <c r="D76" s="1">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A77" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C77" s="1">
+        <v>970</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A78" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A79" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A80" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1042</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A81" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1108</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1142</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A83" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1173</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A84" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1220</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1235</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A86" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1254</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1291</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C88" s="4">
+        <v>1325</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C89" s="4">
+        <v>1353</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" s="4">
+        <v>1364</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C91" s="4">
+        <v>1386</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C92" s="4">
+        <v>1429</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1446</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/store.xlsx
+++ b/store.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Histline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480C1F4C-78E4-43FF-A1CD-58BB68157A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ACB877-25B7-4AE4-AB33-3133C029592F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="308">
   <si>
     <t>Dynasty</t>
   </si>
@@ -880,6 +880,81 @@
   </si>
   <si>
     <t>Narasimha Reddi</t>
+  </si>
+  <si>
+    <t>Mughal Empire</t>
+  </si>
+  <si>
+    <t>Babur </t>
+  </si>
+  <si>
+    <t>Humayun </t>
+  </si>
+  <si>
+    <t>Akbar the Great</t>
+  </si>
+  <si>
+    <t>Jahangir </t>
+  </si>
+  <si>
+    <t>Shah Jahan</t>
+  </si>
+  <si>
+    <t>Aurangzeb</t>
+  </si>
+  <si>
+    <t>Bahadur Shah I</t>
+  </si>
+  <si>
+    <t>Jahandar Shah</t>
+  </si>
+  <si>
+    <t>Farrukhsiyar </t>
+  </si>
+  <si>
+    <t>Rafi Ul-Darjat</t>
+  </si>
+  <si>
+    <t>Shah Jahan II</t>
+  </si>
+  <si>
+    <t>Ahmad Shah Bahadur</t>
+  </si>
+  <si>
+    <t>Alamgir II</t>
+  </si>
+  <si>
+    <t>Shah Jahan III</t>
+  </si>
+  <si>
+    <t>Shah Alam II</t>
+  </si>
+  <si>
+    <t>Akbar Shah II</t>
+  </si>
+  <si>
+    <t>Bahadur Shah II</t>
+  </si>
+  <si>
+    <t>Sur Empire</t>
+  </si>
+  <si>
+    <t>Sher Shah Suri</t>
+  </si>
+  <si>
+    <t>Islam Shah Suri</t>
+  </si>
+  <si>
+    <t>Firuz Shah Suri</t>
+  </si>
+  <si>
+    <t>Muhammad Adil Shah</t>
+  </si>
+  <si>
+    <t>Ibrahim Shah Suri</t>
+  </si>
+  <si>
+    <t>Sikandar Shah Suri</t>
   </si>
 </sst>
 </file>
@@ -1345,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK121"/>
+  <dimension ref="A1:AK122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4743,9 +4818,359 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C94" s="7">
+        <v>1526</v>
+      </c>
+      <c r="D94" s="7">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C95" s="7">
+        <v>1530</v>
+      </c>
+      <c r="D95" s="7">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C96" s="7">
+        <v>1555</v>
+      </c>
+      <c r="D96" s="7">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C97" s="7">
+        <v>1556</v>
+      </c>
+      <c r="D97" s="7">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C98" s="7">
+        <v>1605</v>
+      </c>
+      <c r="D98" s="7">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C99" s="7">
+        <v>1628</v>
+      </c>
+      <c r="D99" s="7">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C100" s="7">
+        <v>1658</v>
+      </c>
+      <c r="D100" s="7">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C101" s="7">
+        <v>1707</v>
+      </c>
+      <c r="D101" s="7">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C102" s="7">
+        <v>1712</v>
+      </c>
+      <c r="D102" s="7">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C103" s="7">
+        <v>1713</v>
+      </c>
+      <c r="D103" s="7">
+        <v>1719.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C104" s="7">
+        <v>1719.2</v>
+      </c>
+      <c r="D104" s="7">
+        <v>1719.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A105" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C105" s="7">
+        <v>1719.6</v>
+      </c>
+      <c r="D105" s="7">
+        <v>1719.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A106" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106" s="7">
+        <v>1719.9</v>
+      </c>
+      <c r="D106" s="7">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A107" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C107" s="7">
+        <v>1748</v>
+      </c>
+      <c r="D107" s="7">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A108" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C108" s="7">
+        <v>1754</v>
+      </c>
+      <c r="D108" s="7">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A109" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C109" s="7">
+        <v>1759</v>
+      </c>
+      <c r="D109" s="7">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A110" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C110" s="7">
+        <v>1760</v>
+      </c>
+      <c r="D110" s="7">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C111" s="7">
+        <v>1806</v>
+      </c>
+      <c r="D111" s="7">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A112" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C112" s="7">
+        <v>1837</v>
+      </c>
+      <c r="D112" s="7">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A113" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C113" s="7">
+        <v>1540</v>
+      </c>
+      <c r="D113" s="7">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A114" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C114" s="7">
+        <v>1545</v>
+      </c>
+      <c r="D114" s="7">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C115" s="7">
+        <v>1554</v>
+      </c>
+      <c r="D115" s="7">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A116" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C116" s="7">
+        <v>1555.05</v>
+      </c>
+      <c r="D116" s="7">
+        <v>1555.08</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C117" s="7">
+        <v>1555.08</v>
+      </c>
+      <c r="D117" s="7">
+        <v>1555.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A118" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C118" s="7">
+        <v>1555.1</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1555.11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/store.xlsx
+++ b/store.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Histline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ACB877-25B7-4AE4-AB33-3133C029592F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51420CF-6349-4EC9-BC0C-3312200A40DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="876">
   <si>
     <t>Dynasty</t>
   </si>
@@ -955,13 +955,1717 @@
   </si>
   <si>
     <t>Sikandar Shah Suri</t>
+  </si>
+  <si>
+    <t>Ahmadnagar Sultanate</t>
+  </si>
+  <si>
+    <t>Malik Ahmad</t>
+  </si>
+  <si>
+    <t>Burhan Nizam Shah I</t>
+  </si>
+  <si>
+    <t>Hussain Nizam Shah I</t>
+  </si>
+  <si>
+    <t>Murtaza Nizam Shah I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miran Hussain Nizam Shah </t>
+  </si>
+  <si>
+    <t>Ismail Nizam Shah</t>
+  </si>
+  <si>
+    <t>Ahmad Nizam Shah I</t>
+  </si>
+  <si>
+    <t>Fateh Shah</t>
+  </si>
+  <si>
+    <t>Hussain Nizam Shah II</t>
+  </si>
+  <si>
+    <t>Ahmad Nizam Shah II</t>
+  </si>
+  <si>
+    <t>Bijapur Sultanate</t>
+  </si>
+  <si>
+    <t>Yusuf Adil Shah</t>
+  </si>
+  <si>
+    <t>Isma'il Adil Shah</t>
+  </si>
+  <si>
+    <t>Mallu Adil Shah</t>
+  </si>
+  <si>
+    <t>Ibrahim Adil Shah I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali Adil Shah I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibrahim Adil Shah II </t>
+  </si>
+  <si>
+    <t>Mohammed Adil Shah</t>
+  </si>
+  <si>
+    <t>Ali Adil Shah II</t>
+  </si>
+  <si>
+    <t>Sikandar Adil Shah</t>
+  </si>
+  <si>
+    <t>Mujahid Adil Shah</t>
+  </si>
+  <si>
+    <t>Golconda Sultanate</t>
+  </si>
+  <si>
+    <t>Quli Qutb Shah</t>
+  </si>
+  <si>
+    <t>Jamsheed Quli Qutb Shah</t>
+  </si>
+  <si>
+    <t>Subhan Quli Qutb Shah</t>
+  </si>
+  <si>
+    <t>Ibrahim Quli Qutb Shah</t>
+  </si>
+  <si>
+    <t>Muhammad Quli Qutb Shah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sultan Muhammad Qutb Shah </t>
+  </si>
+  <si>
+    <t>Abdullah Qutb Shah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abul Hasan Qutb Shah </t>
+  </si>
+  <si>
+    <t>Ottoman Sultans</t>
+  </si>
+  <si>
+    <t>Osman I</t>
+  </si>
+  <si>
+    <t>Orhan</t>
+  </si>
+  <si>
+    <t>Murad I</t>
+  </si>
+  <si>
+    <t>Bayezid I</t>
+  </si>
+  <si>
+    <t>Mehmed I</t>
+  </si>
+  <si>
+    <t>Murad II</t>
+  </si>
+  <si>
+    <t>Mehmed II</t>
+  </si>
+  <si>
+    <t>Bayezid II</t>
+  </si>
+  <si>
+    <t>Selim I</t>
+  </si>
+  <si>
+    <t>Suleiman the Magnificent</t>
+  </si>
+  <si>
+    <t>Selim II</t>
+  </si>
+  <si>
+    <t>Murad III</t>
+  </si>
+  <si>
+    <t>Mehmed III</t>
+  </si>
+  <si>
+    <t>Ahmed I</t>
+  </si>
+  <si>
+    <t>Mustafa I</t>
+  </si>
+  <si>
+    <t>Osman II</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>Mehmed IV</t>
+  </si>
+  <si>
+    <t>Suleiman II</t>
+  </si>
+  <si>
+    <t>Ahmed II</t>
+  </si>
+  <si>
+    <t>Mustafa II</t>
+  </si>
+  <si>
+    <t>Ahmed III</t>
+  </si>
+  <si>
+    <t>Mahmud I</t>
+  </si>
+  <si>
+    <t>Osman III</t>
+  </si>
+  <si>
+    <t>Mustafa III</t>
+  </si>
+  <si>
+    <t>Abdul Hamid I</t>
+  </si>
+  <si>
+    <t>Selim III</t>
+  </si>
+  <si>
+    <t>Mustafa IV</t>
+  </si>
+  <si>
+    <t>Mahmud II</t>
+  </si>
+  <si>
+    <t>Abdulmejid I</t>
+  </si>
+  <si>
+    <t>Abdulaziz</t>
+  </si>
+  <si>
+    <t>Murad V</t>
+  </si>
+  <si>
+    <t>Abdul Hamid II</t>
+  </si>
+  <si>
+    <t>Mehmed V</t>
+  </si>
+  <si>
+    <t>Mehmed VI</t>
+  </si>
+  <si>
+    <t>Isma'il I</t>
+  </si>
+  <si>
+    <t>Tahmasp I</t>
+  </si>
+  <si>
+    <t>Ismail II</t>
+  </si>
+  <si>
+    <t>Mohammed Khodabanda</t>
+  </si>
+  <si>
+    <t>Abbas I</t>
+  </si>
+  <si>
+    <t>Safi I</t>
+  </si>
+  <si>
+    <t>Abbas II</t>
+  </si>
+  <si>
+    <t>Suleiman I</t>
+  </si>
+  <si>
+    <t>Husayn I</t>
+  </si>
+  <si>
+    <t>Safavid Empire</t>
+  </si>
+  <si>
+    <t>Muhammad Shaybani</t>
+  </si>
+  <si>
+    <t>Miran Shah</t>
+  </si>
+  <si>
+    <t>Ubaidullah Sultan</t>
+  </si>
+  <si>
+    <t>Abdullah Sultan</t>
+  </si>
+  <si>
+    <t>Abul Ghazi Sultan</t>
+  </si>
+  <si>
+    <t>Abdullah Sultan (restored)</t>
+  </si>
+  <si>
+    <t>Abdurashid Sultan</t>
+  </si>
+  <si>
+    <t>Muhammad Sultan</t>
+  </si>
+  <si>
+    <t>Rahim Sultan</t>
+  </si>
+  <si>
+    <t>Abdullah II</t>
+  </si>
+  <si>
+    <t>Abdurazzak Sultan</t>
+  </si>
+  <si>
+    <t>Yadgar Sultan</t>
+  </si>
+  <si>
+    <t>Sulaiman Sultan</t>
+  </si>
+  <si>
+    <t>Khuda Sultan</t>
+  </si>
+  <si>
+    <t>Alim Sultan</t>
+  </si>
+  <si>
+    <t>Rakhim Sultan</t>
+  </si>
+  <si>
+    <t>Abul Faiz Khan</t>
+  </si>
+  <si>
+    <t>Ubaidullah Sultan II</t>
+  </si>
+  <si>
+    <t>Abdullah III</t>
+  </si>
+  <si>
+    <t>Rakhim Sultan (restored)</t>
+  </si>
+  <si>
+    <t>Muhammad Rahim Khan</t>
+  </si>
+  <si>
+    <t>Muhammad Amin Khan</t>
+  </si>
+  <si>
+    <t>Shahrukh Shah</t>
+  </si>
+  <si>
+    <t>Muhammad Rahim Khan II</t>
+  </si>
+  <si>
+    <t>Muhammad Hakim Khan</t>
+  </si>
+  <si>
+    <t>Muhammad Umar Khan</t>
+  </si>
+  <si>
+    <t>Muhammad Rahim Khan III</t>
+  </si>
+  <si>
+    <t>Muhammad Oraz Khan</t>
+  </si>
+  <si>
+    <t>Uzbek Empire</t>
+  </si>
+  <si>
+    <t>Simhavishnu</t>
+  </si>
+  <si>
+    <t>Mahendravarman I</t>
+  </si>
+  <si>
+    <t>Narasimhavarman I</t>
+  </si>
+  <si>
+    <t>Mahendravarman II</t>
+  </si>
+  <si>
+    <t>Paramesvaravarman I</t>
+  </si>
+  <si>
+    <t>Narasimhavarman II</t>
+  </si>
+  <si>
+    <t>Paramesvaravarman II</t>
+  </si>
+  <si>
+    <t>Nandivarman II</t>
+  </si>
+  <si>
+    <t>Dantivarman</t>
+  </si>
+  <si>
+    <t>Nandivarman III</t>
+  </si>
+  <si>
+    <t>Nripatunga</t>
+  </si>
+  <si>
+    <t>Aparajitavarman</t>
+  </si>
+  <si>
+    <t>Pallava dynasty</t>
+  </si>
+  <si>
+    <t>Sunga Dynasty</t>
+  </si>
+  <si>
+    <t>Pushyamitra Sunga</t>
+  </si>
+  <si>
+    <t>Agnimitra</t>
+  </si>
+  <si>
+    <t>Vasujyeshtha</t>
+  </si>
+  <si>
+    <t>Vasumitra</t>
+  </si>
+  <si>
+    <t>Andhraka</t>
+  </si>
+  <si>
+    <t>Pulindaka</t>
+  </si>
+  <si>
+    <t>Ghosha</t>
+  </si>
+  <si>
+    <t>Vajramitra</t>
+  </si>
+  <si>
+    <t>Bhagabhadra</t>
+  </si>
+  <si>
+    <t>Devabhuti</t>
+  </si>
+  <si>
+    <t>Brihadratha</t>
+  </si>
+  <si>
+    <t>Kanva Dynasty</t>
+  </si>
+  <si>
+    <t>Vasudeva</t>
+  </si>
+  <si>
+    <t>Bhumimitra</t>
+  </si>
+  <si>
+    <t>Narayana</t>
+  </si>
+  <si>
+    <t>Susarman</t>
+  </si>
+  <si>
+    <t>Sujyeshtha</t>
+  </si>
+  <si>
+    <t>Vitashoka</t>
+  </si>
+  <si>
+    <t>Kanishka</t>
+  </si>
+  <si>
+    <t>Satavahana Dynasty</t>
+  </si>
+  <si>
+    <t>Simuka</t>
+  </si>
+  <si>
+    <t>Kanha (Satakarni I)</t>
+  </si>
+  <si>
+    <t>Satakarni II</t>
+  </si>
+  <si>
+    <t>Lambodara (Purindrasena)</t>
+  </si>
+  <si>
+    <t>Ardharathi</t>
+  </si>
+  <si>
+    <t>Hala (Pithaputra)</t>
+  </si>
+  <si>
+    <t>Mandalaka (Sundara Satakarni)</t>
+  </si>
+  <si>
+    <t>Purindrasena II</t>
+  </si>
+  <si>
+    <t>Sundara Satakarni II</t>
+  </si>
+  <si>
+    <t>Chakora</t>
+  </si>
+  <si>
+    <t>Sivasvati</t>
+  </si>
+  <si>
+    <t>Gautamiputra Satakarni</t>
+  </si>
+  <si>
+    <t>Vasishthiputra Sri Pulamavi</t>
+  </si>
+  <si>
+    <t>Vashishtiputra Satakarni</t>
+  </si>
+  <si>
+    <t>Shivaskanda Satakarni</t>
+  </si>
+  <si>
+    <t>Yajna Sri Satakarni</t>
+  </si>
+  <si>
+    <t>Vijaya</t>
+  </si>
+  <si>
+    <t>Chanda Sri Satakarni</t>
+  </si>
+  <si>
+    <t>Pulomavi IV</t>
+  </si>
+  <si>
+    <t>Sri Yajna Satakarni</t>
+  </si>
+  <si>
+    <t>Vijaya Satakarni II</t>
+  </si>
+  <si>
+    <t>Chandra Sri Satakarni</t>
+  </si>
+  <si>
+    <t>Pulomavi V</t>
+  </si>
+  <si>
+    <t>Yajna Sri Satakarni II</t>
+  </si>
+  <si>
+    <t>Vasishthiputra Pulomavi</t>
+  </si>
+  <si>
+    <t>Chandra Sri Satakarni II</t>
+  </si>
+  <si>
+    <t>Pulumavi VI</t>
+  </si>
+  <si>
+    <t>Sri Yajna Satakarni III</t>
+  </si>
+  <si>
+    <t>Vijaya Satakarni III</t>
+  </si>
+  <si>
+    <t>Maues</t>
+  </si>
+  <si>
+    <t>Vonones</t>
+  </si>
+  <si>
+    <t>Spalahores</t>
+  </si>
+  <si>
+    <t>Spalirises</t>
+  </si>
+  <si>
+    <t>Azilises</t>
+  </si>
+  <si>
+    <t>Azilises II</t>
+  </si>
+  <si>
+    <t>Spalahores II</t>
+  </si>
+  <si>
+    <t>Rudradaman I</t>
+  </si>
+  <si>
+    <t>Damajadasri I</t>
+  </si>
+  <si>
+    <t>Jivadaman</t>
+  </si>
+  <si>
+    <t>Rudrasimha I</t>
+  </si>
+  <si>
+    <t>Isvaradatta</t>
+  </si>
+  <si>
+    <t>Rudrasimha II</t>
+  </si>
+  <si>
+    <t>Vispavarman</t>
+  </si>
+  <si>
+    <t>Rudrasimha III</t>
+  </si>
+  <si>
+    <t>Rudradaman II</t>
+  </si>
+  <si>
+    <t>Chashtana</t>
+  </si>
+  <si>
+    <t>Rudrasena III</t>
+  </si>
+  <si>
+    <t>Saka Dynasty</t>
+  </si>
+  <si>
+    <t>Vindhyashakti</t>
+  </si>
+  <si>
+    <t>Pravarasena I</t>
+  </si>
+  <si>
+    <t>Rudrasena I</t>
+  </si>
+  <si>
+    <t>Prithivishena I</t>
+  </si>
+  <si>
+    <t>Rudrasena II</t>
+  </si>
+  <si>
+    <t>Divakarasena</t>
+  </si>
+  <si>
+    <t>Pravarasena II</t>
+  </si>
+  <si>
+    <t>Prithivishena II</t>
+  </si>
+  <si>
+    <t>Rudrasena IV</t>
+  </si>
+  <si>
+    <t>Devasena</t>
+  </si>
+  <si>
+    <t>Yajnasena</t>
+  </si>
+  <si>
+    <t>Rudrasena V</t>
+  </si>
+  <si>
+    <t>Pravarasena III</t>
+  </si>
+  <si>
+    <t>Narendrasena</t>
+  </si>
+  <si>
+    <t>Prithivishena III</t>
+  </si>
+  <si>
+    <t>Vakatakas Dynasty</t>
+  </si>
+  <si>
+    <t>Chera Dynasty</t>
+  </si>
+  <si>
+    <t>Uthiyan Cheralathan</t>
+  </si>
+  <si>
+    <t>Imayavaramban Nedum Cheralathan</t>
+  </si>
+  <si>
+    <t>Senguttuvan</t>
+  </si>
+  <si>
+    <t>Perum Cheral Irumporai</t>
+  </si>
+  <si>
+    <t>Palyani Sel Kelu Kuttuvan</t>
+  </si>
+  <si>
+    <t>Kalankai Kanni Narmudi Cheral</t>
+  </si>
+  <si>
+    <t>Kadal Pirakottiya Vel Kezhu Kuttuvan</t>
+  </si>
+  <si>
+    <t>Adukotpattu Cheralatan</t>
+  </si>
+  <si>
+    <t>Cheraman Perumal</t>
+  </si>
+  <si>
+    <t>Kanaikkal Irumporai</t>
+  </si>
+  <si>
+    <t>Kanaikkal Kadungo</t>
+  </si>
+  <si>
+    <t>Chola Dynasty</t>
+  </si>
+  <si>
+    <t>Karikala Chola</t>
+  </si>
+  <si>
+    <t>Elara (Interregnum of Chola rule during Elara's period)</t>
+  </si>
+  <si>
+    <t>Nedunkilli</t>
+  </si>
+  <si>
+    <t>Killivalavan</t>
+  </si>
+  <si>
+    <t>Kopperuncholan</t>
+  </si>
+  <si>
+    <t>Perunarkilli</t>
+  </si>
+  <si>
+    <t>Ilamcetcenni</t>
+  </si>
+  <si>
+    <t>Karikala II</t>
+  </si>
+  <si>
+    <t>Perunjinga</t>
+  </si>
+  <si>
+    <t>Mudukudumi Perunjinga</t>
+  </si>
+  <si>
+    <t>Kocengannan</t>
+  </si>
+  <si>
+    <t>Nedungilli</t>
+  </si>
+  <si>
+    <t>Aditya I</t>
+  </si>
+  <si>
+    <t>Parantaka I</t>
+  </si>
+  <si>
+    <t>Martenk Killakesari</t>
+  </si>
+  <si>
+    <t>Kochadaiyan Ranadhiran</t>
+  </si>
+  <si>
+    <t>Marppidika Permadi Maran</t>
+  </si>
+  <si>
+    <t>Aditya II</t>
+  </si>
+  <si>
+    <t>Parantaka II</t>
+  </si>
+  <si>
+    <t>Nandi Varman</t>
+  </si>
+  <si>
+    <t>Kunthavai</t>
+  </si>
+  <si>
+    <t>Rajaraja I</t>
+  </si>
+  <si>
+    <t>Rajendra I</t>
+  </si>
+  <si>
+    <t>Rajadhiraja I</t>
+  </si>
+  <si>
+    <t>Rajendradeva I</t>
+  </si>
+  <si>
+    <t>Rajadhiraja II</t>
+  </si>
+  <si>
+    <t>Rajaraja II</t>
+  </si>
+  <si>
+    <t>Rajendra III</t>
+  </si>
+  <si>
+    <t>Rajadhiraja III</t>
+  </si>
+  <si>
+    <t>Rajaraja IV</t>
+  </si>
+  <si>
+    <t>Kulottunga I</t>
+  </si>
+  <si>
+    <t>Rajaraja V</t>
+  </si>
+  <si>
+    <t>Pandyas Dynasty</t>
+  </si>
+  <si>
+    <t>Kadungon</t>
+  </si>
+  <si>
+    <t>Maravarman Avani Culamani</t>
+  </si>
+  <si>
+    <t>Jatila Parantaka</t>
+  </si>
+  <si>
+    <t>Maravarman Vikkiraman</t>
+  </si>
+  <si>
+    <t>Jatila Parantaka Nedunjadaiyan</t>
+  </si>
+  <si>
+    <t>Maravarman Korunatakan I</t>
+  </si>
+  <si>
+    <t>Azhagiya Pandya Nedunjadaiyan</t>
+  </si>
+  <si>
+    <t>Maravarman Ezhni</t>
+  </si>
+  <si>
+    <t>Maravarman Kozunthakai Valakuvan</t>
+  </si>
+  <si>
+    <t>Nendungilli</t>
+  </si>
+  <si>
+    <t>Nedunjeliyan II</t>
+  </si>
+  <si>
+    <t>Maravarman Virapandiyan</t>
+  </si>
+  <si>
+    <t>Maravarman Ezhimalaiyan</t>
+  </si>
+  <si>
+    <t>Maravarman Thribhuvana Chakravarthy</t>
+  </si>
+  <si>
+    <t>Jatila Parantaka Nedunjeliyan III</t>
+  </si>
+  <si>
+    <t>Nedunjeliyan IV</t>
+  </si>
+  <si>
+    <t>Palyagasalai Mudukudumi Peruvaludi</t>
+  </si>
+  <si>
+    <t>Mudukudumi Peruvaludi</t>
+  </si>
+  <si>
+    <t>Satyashraya</t>
+  </si>
+  <si>
+    <t>Vikramaditya V</t>
+  </si>
+  <si>
+    <t>Jayasimha II</t>
+  </si>
+  <si>
+    <t>Someshvara I</t>
+  </si>
+  <si>
+    <t>Someshvara II</t>
+  </si>
+  <si>
+    <t>Vikramaditya VI</t>
+  </si>
+  <si>
+    <t>Someshvara III</t>
+  </si>
+  <si>
+    <t>Jagadhekamalla II</t>
+  </si>
+  <si>
+    <t>Tailapa II</t>
+  </si>
+  <si>
+    <t>Jagadhekamalla III</t>
+  </si>
+  <si>
+    <t>Jagadhekamalla IV</t>
+  </si>
+  <si>
+    <t>Pulakeshin I</t>
+  </si>
+  <si>
+    <t>Kirtivarman I</t>
+  </si>
+  <si>
+    <t>Mangalesha</t>
+  </si>
+  <si>
+    <t>Pulakeshin II</t>
+  </si>
+  <si>
+    <t>Vikramaditya I</t>
+  </si>
+  <si>
+    <t>Vinayaditya</t>
+  </si>
+  <si>
+    <t>Vikramaditya II</t>
+  </si>
+  <si>
+    <t>Vijayaditya</t>
+  </si>
+  <si>
+    <t>Vikramaditya III</t>
+  </si>
+  <si>
+    <t>Chalukyas Dynasty(Badami)</t>
+  </si>
+  <si>
+    <t>Western Chalukyas Dynasty(Kanyani)</t>
+  </si>
+  <si>
+    <t>Tailapa III</t>
+  </si>
+  <si>
+    <t>Gonanda I</t>
+  </si>
+  <si>
+    <t>Damodarasena</t>
+  </si>
+  <si>
+    <t>Gonanda II</t>
+  </si>
+  <si>
+    <t>Abhimanyu I</t>
+  </si>
+  <si>
+    <t>Kshemagupta</t>
+  </si>
+  <si>
+    <t>Baladitya I</t>
+  </si>
+  <si>
+    <t>Meghavahana</t>
+  </si>
+  <si>
+    <t>Sugandha</t>
+  </si>
+  <si>
+    <t>Sukhavarma</t>
+  </si>
+  <si>
+    <t>Gonanda III</t>
+  </si>
+  <si>
+    <t>Bhudhiman</t>
+  </si>
+  <si>
+    <t>Bhuvanada</t>
+  </si>
+  <si>
+    <t>Durlabhaka</t>
+  </si>
+  <si>
+    <t>Vimadeva</t>
+  </si>
+  <si>
+    <t>Samudradeva</t>
+  </si>
+  <si>
+    <t>Yasodhara</t>
+  </si>
+  <si>
+    <t>Kshemagupta II</t>
+  </si>
+  <si>
+    <t>Gopaditya</t>
+  </si>
+  <si>
+    <t>Meghavahana II</t>
+  </si>
+  <si>
+    <t>Jayendravarman</t>
+  </si>
+  <si>
+    <t>Rasadhvaja</t>
+  </si>
+  <si>
+    <t>Hiranya</t>
+  </si>
+  <si>
+    <t>Kshemagupta III</t>
+  </si>
+  <si>
+    <t>Baladitya II</t>
+  </si>
+  <si>
+    <t>Durlabhaka II</t>
+  </si>
+  <si>
+    <t>Baladitya III</t>
+  </si>
+  <si>
+    <t>Kashmir Gonanda Dynasty</t>
+  </si>
+  <si>
+    <t>Sena Dynasty</t>
+  </si>
+  <si>
+    <t>Samanta Sena</t>
+  </si>
+  <si>
+    <t>Hemanta Sena</t>
+  </si>
+  <si>
+    <t>Vijaya Sena</t>
+  </si>
+  <si>
+    <t>Ballala Sena</t>
+  </si>
+  <si>
+    <t>Lakshmana Sena</t>
+  </si>
+  <si>
+    <t>Vishwarupa Sena</t>
+  </si>
+  <si>
+    <t>Keshava Sena</t>
+  </si>
+  <si>
+    <t>Shurapala I</t>
+  </si>
+  <si>
+    <t>Maharana</t>
+  </si>
+  <si>
+    <t>Samaratunga</t>
+  </si>
+  <si>
+    <t>Keshava Sena II</t>
+  </si>
+  <si>
+    <t>Lakshmana Sena II</t>
+  </si>
+  <si>
+    <t>Madhu Sena</t>
+  </si>
+  <si>
+    <t>Sundara Pandya</t>
+  </si>
+  <si>
+    <t>Narasimha Deva</t>
+  </si>
+  <si>
+    <t>Shurapala II</t>
+  </si>
+  <si>
+    <t>Vishnu Sena</t>
+  </si>
+  <si>
+    <t>Shurapala III</t>
+  </si>
+  <si>
+    <t>Ballala Sena II</t>
+  </si>
+  <si>
+    <t>Shurapala IV</t>
+  </si>
+  <si>
+    <t>Maharaja Ganesha</t>
+  </si>
+  <si>
+    <t>Raja Ganesh</t>
+  </si>
+  <si>
+    <t>Raja Jagat Manikya</t>
+  </si>
+  <si>
+    <t>Raja Kumara</t>
+  </si>
+  <si>
+    <t>Samsuddin Firuz Shah</t>
+  </si>
+  <si>
+    <t>Utpala Dynasty</t>
+  </si>
+  <si>
+    <t>Avantivarman</t>
+  </si>
+  <si>
+    <t>Sankaravarman</t>
+  </si>
+  <si>
+    <t>Gopalavarman</t>
+  </si>
+  <si>
+    <t>Sughandhavarman</t>
+  </si>
+  <si>
+    <t>Samaravarman</t>
+  </si>
+  <si>
+    <t>Candrapida</t>
+  </si>
+  <si>
+    <t>Suryavarman</t>
+  </si>
+  <si>
+    <t>Tribhuvanavarman</t>
+  </si>
+  <si>
+    <t>Parvagupta</t>
+  </si>
+  <si>
+    <t>Nirjitavarman</t>
+  </si>
+  <si>
+    <t>Candrajitavarman</t>
+  </si>
+  <si>
+    <t>Bhikshachara</t>
+  </si>
+  <si>
+    <t>Muktachara</t>
+  </si>
+  <si>
+    <t>Mallachara</t>
+  </si>
+  <si>
+    <t>Ananta</t>
+  </si>
+  <si>
+    <t>Sangramaraja</t>
+  </si>
+  <si>
+    <t>Jayasimha</t>
+  </si>
+  <si>
+    <t>Hariraja</t>
+  </si>
+  <si>
+    <t>Lalitaditya Muktapida</t>
+  </si>
+  <si>
+    <t>Hindu Shahi</t>
+  </si>
+  <si>
+    <t>Kallar</t>
+  </si>
+  <si>
+    <t>Samanta Deva</t>
+  </si>
+  <si>
+    <t>Jayapala</t>
+  </si>
+  <si>
+    <t>Anandapala</t>
+  </si>
+  <si>
+    <t>Trilochanapala</t>
+  </si>
+  <si>
+    <t>Bhimapala</t>
+  </si>
+  <si>
+    <t>Rajapala</t>
+  </si>
+  <si>
+    <t>Siyapala</t>
+  </si>
+  <si>
+    <t>Karnapala</t>
+  </si>
+  <si>
+    <t>Bhimapala II</t>
+  </si>
+  <si>
+    <t>Rajapala II</t>
+  </si>
+  <si>
+    <t>Jayapala II</t>
+  </si>
+  <si>
+    <t>Trilochanapala II</t>
+  </si>
+  <si>
+    <t>Bhimapala III</t>
+  </si>
+  <si>
+    <t>Anandapala II</t>
+  </si>
+  <si>
+    <t>Trilochanapala III</t>
+  </si>
+  <si>
+    <t>Bhimapala IV</t>
+  </si>
+  <si>
+    <t>Lohara Dynasty</t>
+  </si>
+  <si>
+    <t>Sangramadeva</t>
+  </si>
+  <si>
+    <t>Harshadeva</t>
+  </si>
+  <si>
+    <t>Utkarsa</t>
+  </si>
+  <si>
+    <t>Sussala</t>
+  </si>
+  <si>
+    <t>Jaysimha</t>
+  </si>
+  <si>
+    <t>Meghadeva</t>
+  </si>
+  <si>
+    <t>Uchala</t>
+  </si>
+  <si>
+    <t>Susraka</t>
+  </si>
+  <si>
+    <t>Sussala II</t>
+  </si>
+  <si>
+    <t>Gopadeva</t>
+  </si>
+  <si>
+    <t>Tribhuvanadeva</t>
+  </si>
+  <si>
+    <t>Sussala III</t>
+  </si>
+  <si>
+    <t>Rashtrakuta Dynasty</t>
+  </si>
+  <si>
+    <t>Dantidurga</t>
+  </si>
+  <si>
+    <t>Govinda I</t>
+  </si>
+  <si>
+    <t>Dhruva Dharavarsha</t>
+  </si>
+  <si>
+    <t>Govinda II</t>
+  </si>
+  <si>
+    <t>Amoghavarsha I</t>
+  </si>
+  <si>
+    <t>Krishna I</t>
+  </si>
+  <si>
+    <t>Indra III</t>
+  </si>
+  <si>
+    <t>Amoghavarsha II</t>
+  </si>
+  <si>
+    <t>Govinda III</t>
+  </si>
+  <si>
+    <t>Amoghavarsha III</t>
+  </si>
+  <si>
+    <t>Krishna III</t>
+  </si>
+  <si>
+    <t>Khottiga</t>
+  </si>
+  <si>
+    <t>Karka II</t>
+  </si>
+  <si>
+    <t>Indra IV</t>
+  </si>
+  <si>
+    <t>Rakkasa</t>
+  </si>
+  <si>
+    <t>Karka III</t>
+  </si>
+  <si>
+    <t>Khottiga II</t>
+  </si>
+  <si>
+    <t>Taila II</t>
+  </si>
+  <si>
+    <t>Parthians Dynasty</t>
+  </si>
+  <si>
+    <t>Arsaces I</t>
+  </si>
+  <si>
+    <t>Arsaces II</t>
+  </si>
+  <si>
+    <t>Phriapatius</t>
+  </si>
+  <si>
+    <t>Phraates I</t>
+  </si>
+  <si>
+    <t>Mithridates I</t>
+  </si>
+  <si>
+    <t>Phraates II</t>
+  </si>
+  <si>
+    <t>Artabanus I</t>
+  </si>
+  <si>
+    <t>Mithridates II</t>
+  </si>
+  <si>
+    <t>Gotarzes I</t>
+  </si>
+  <si>
+    <t>Orodes I</t>
+  </si>
+  <si>
+    <t>Sanatruces</t>
+  </si>
+  <si>
+    <t>Phraates III</t>
+  </si>
+  <si>
+    <t>Orodes II</t>
+  </si>
+  <si>
+    <t>Phraates IV</t>
+  </si>
+  <si>
+    <t>Tiridates II</t>
+  </si>
+  <si>
+    <t>Artabanus II</t>
+  </si>
+  <si>
+    <t>Pacorus II</t>
+  </si>
+  <si>
+    <t>Vologases I</t>
+  </si>
+  <si>
+    <t>Osroes I</t>
+  </si>
+  <si>
+    <t>Mithridates IV</t>
+  </si>
+  <si>
+    <t>Vologases II</t>
+  </si>
+  <si>
+    <t>Mithridates III</t>
+  </si>
+  <si>
+    <t>Gotarzes II</t>
+  </si>
+  <si>
+    <t>Vardanes I</t>
+  </si>
+  <si>
+    <t>Vologases III</t>
+  </si>
+  <si>
+    <t>Artabanus IV</t>
+  </si>
+  <si>
+    <t>Kasi</t>
+  </si>
+  <si>
+    <t>Kosala</t>
+  </si>
+  <si>
+    <t>Anga</t>
+  </si>
+  <si>
+    <t>Vajji</t>
+  </si>
+  <si>
+    <t>Malla</t>
+  </si>
+  <si>
+    <t>Chedi/Cheti</t>
+  </si>
+  <si>
+    <t>Vatsa</t>
+  </si>
+  <si>
+    <t>Kuru</t>
+  </si>
+  <si>
+    <t>Panchala</t>
+  </si>
+  <si>
+    <t>Matsya</t>
+  </si>
+  <si>
+    <t>Surasena/Shurasena</t>
+  </si>
+  <si>
+    <t>Assaka</t>
+  </si>
+  <si>
+    <t>Avanti</t>
+  </si>
+  <si>
+    <t>Gandhara</t>
+  </si>
+  <si>
+    <t>Kamboja</t>
+  </si>
+  <si>
+    <t>Darshaka</t>
+  </si>
+  <si>
+    <t>Mahakshatrapa</t>
+  </si>
+  <si>
+    <t>Ikshvaku</t>
+  </si>
+  <si>
+    <t>Kakavarna</t>
+  </si>
+  <si>
+    <t>Kshemajit</t>
+  </si>
+  <si>
+    <t>Prasenajit</t>
+  </si>
+  <si>
+    <t>Vidudabha</t>
+  </si>
+  <si>
+    <t>Bhadrasena</t>
+  </si>
+  <si>
+    <t>Ripunjaya</t>
+  </si>
+  <si>
+    <t>Swayambhuva</t>
+  </si>
+  <si>
+    <t>Chetaka</t>
+  </si>
+  <si>
+    <t>Nirvritti</t>
+  </si>
+  <si>
+    <t>Swayambhava II</t>
+  </si>
+  <si>
+    <t>Anaranya</t>
+  </si>
+  <si>
+    <t>Animisha</t>
+  </si>
+  <si>
+    <t>Vrittasena</t>
+  </si>
+  <si>
+    <t>Bharadwaja</t>
+  </si>
+  <si>
+    <t>Senaka</t>
+  </si>
+  <si>
+    <t>Sanjaya</t>
+  </si>
+  <si>
+    <t>Mahasenaka</t>
+  </si>
+  <si>
+    <t>Vajjisena</t>
+  </si>
+  <si>
+    <t>Bhimsenaka</t>
+  </si>
+  <si>
+    <t>Mahabhutasena</t>
+  </si>
+  <si>
+    <t>Mahanama</t>
+  </si>
+  <si>
+    <t>Vijitasena</t>
+  </si>
+  <si>
+    <t>Virabahu</t>
+  </si>
+  <si>
+    <t>Siddhartha</t>
+  </si>
+  <si>
+    <t>Pratapabahu</t>
+  </si>
+  <si>
+    <t>Narayanabahu</t>
+  </si>
+  <si>
+    <t>Rajasimha</t>
+  </si>
+  <si>
+    <t>Vijayasimha</t>
+  </si>
+  <si>
+    <t>Vishnuvardhana</t>
+  </si>
+  <si>
+    <t>Bhuvanekabahu</t>
+  </si>
+  <si>
+    <t>Parakramabahu</t>
+  </si>
+  <si>
+    <t>Sishupala</t>
+  </si>
+  <si>
+    <t>Dhrishtaketu</t>
+  </si>
+  <si>
+    <t>Vrihadratha</t>
+  </si>
+  <si>
+    <t>Vrihadrathi</t>
+  </si>
+  <si>
+    <t>Bhanuratha</t>
+  </si>
+  <si>
+    <t>Dridhasena</t>
+  </si>
+  <si>
+    <t>Yudhajit</t>
+  </si>
+  <si>
+    <t>Yuyutsu</t>
+  </si>
+  <si>
+    <t>Vitahavya</t>
+  </si>
+  <si>
+    <t>Udayana</t>
+  </si>
+  <si>
+    <t>Vahinara</t>
+  </si>
+  <si>
+    <t>Supratika</t>
+  </si>
+  <si>
+    <t>Vishakhayupa</t>
+  </si>
+  <si>
+    <t>Ruruka</t>
+  </si>
+  <si>
+    <t>Pradyota</t>
+  </si>
+  <si>
+    <t>Vidura</t>
+  </si>
+  <si>
+    <t>Anuvinda</t>
+  </si>
+  <si>
+    <t>Prishata</t>
+  </si>
+  <si>
+    <t>Drupada</t>
+  </si>
+  <si>
+    <t>Samvarana</t>
+  </si>
+  <si>
+    <t>Ranaka</t>
+  </si>
+  <si>
+    <t>Bhima</t>
+  </si>
+  <si>
+    <t>Pratipa</t>
+  </si>
+  <si>
+    <t>Shantanu</t>
+  </si>
+  <si>
+    <t>Divodasa</t>
+  </si>
+  <si>
+    <t>Bhimasena</t>
+  </si>
+  <si>
+    <t>Sudasa</t>
+  </si>
+  <si>
+    <t>Srinjaya</t>
+  </si>
+  <si>
+    <t>Sarvabhauma</t>
+  </si>
+  <si>
+    <t>Devamidha</t>
+  </si>
+  <si>
+    <t>Srutayudha</t>
+  </si>
+  <si>
+    <t>Jalasandha</t>
+  </si>
+  <si>
+    <t>Divakara</t>
+  </si>
+  <si>
+    <t>Virata</t>
+  </si>
+  <si>
+    <t>Suryadatta</t>
+  </si>
+  <si>
+    <t>Vikartana</t>
+  </si>
+  <si>
+    <t>Srutayus</t>
+  </si>
+  <si>
+    <t>Sumitra</t>
+  </si>
+  <si>
+    <t>Brihadkshana</t>
+  </si>
+  <si>
+    <t>Prabhadatta</t>
+  </si>
+  <si>
+    <t>Satyadhriti</t>
+  </si>
+  <si>
+    <t>Mahavirya</t>
+  </si>
+  <si>
+    <t>Mahipala</t>
+  </si>
+  <si>
+    <t>Ratipala</t>
+  </si>
+  <si>
+    <t>Mahadatta</t>
+  </si>
+  <si>
+    <t>Yuvanasva</t>
+  </si>
+  <si>
+    <t>Mulaka</t>
+  </si>
+  <si>
+    <t>Tiloka</t>
+  </si>
+  <si>
+    <t>Nala</t>
+  </si>
+  <si>
+    <t>Chitraratha</t>
+  </si>
+  <si>
+    <t>Shatadyumna</t>
+  </si>
+  <si>
+    <t>Niramitra</t>
+  </si>
+  <si>
+    <t>Sunetra</t>
+  </si>
+  <si>
+    <t>Palaka</t>
+  </si>
+  <si>
+    <t>Vatsaraja</t>
+  </si>
+  <si>
+    <t>Sudharman</t>
+  </si>
+  <si>
+    <t>Sahajahanika</t>
+  </si>
+  <si>
+    <t>Vinihata</t>
+  </si>
+  <si>
+    <t>Bhangakara</t>
+  </si>
+  <si>
+    <t>Yajnashri</t>
+  </si>
+  <si>
+    <t>Pravira</t>
+  </si>
+  <si>
+    <t>Maharaja Sisunaga</t>
+  </si>
+  <si>
+    <t>Maharaja Kalashoka</t>
+  </si>
+  <si>
+    <t>Maharaja Sanjaya</t>
+  </si>
+  <si>
+    <t>Maharaja Kshemajit</t>
+  </si>
+  <si>
+    <t>Maharaja Darshaka</t>
+  </si>
+  <si>
+    <t>Maharaja Nandivardhana</t>
+  </si>
+  <si>
+    <t>Maharaja Mahanandin</t>
+  </si>
+  <si>
+    <t>Maharaja Nandasena</t>
+  </si>
+  <si>
+    <t>Maharaja Dhanananda</t>
+  </si>
+  <si>
+    <t>Saradwata</t>
+  </si>
+  <si>
+    <t>Suryavarcha</t>
+  </si>
+  <si>
+    <t>Parvataka</t>
+  </si>
+  <si>
+    <t>Dantavakra</t>
+  </si>
+  <si>
+    <t>Dhritarashtra</t>
+  </si>
+  <si>
+    <t>Vrishadarbha</t>
+  </si>
+  <si>
+    <t>Durmadana</t>
+  </si>
+  <si>
+    <t>Shakuni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,6 +2705,18 @@
     <font>
       <sz val="10"/>
       <color rgb="FF13343B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF343541"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -1051,7 +2767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1083,6 +2799,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1420,10 +3141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK122"/>
+  <dimension ref="A1:AK683"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A546" workbookViewId="0">
+      <selection activeCell="A555" sqref="A555:A559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5168,9 +6889,7915 @@
         <v>1555.11</v>
       </c>
     </row>
+    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C119" s="13">
+        <v>1490</v>
+      </c>
+      <c r="D119" s="13">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C120" s="13">
+        <v>1510</v>
+      </c>
+      <c r="D120" s="13">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C121" s="13">
+        <v>1553</v>
+      </c>
+      <c r="D121" s="13">
+        <v>1565</v>
+      </c>
+    </row>
     <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C122" s="13">
+        <v>1565</v>
+      </c>
+      <c r="D122" s="13">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C123" s="13">
+        <v>1588</v>
+      </c>
+      <c r="D123" s="13">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C124" s="13">
+        <v>1589</v>
+      </c>
+      <c r="D124" s="13">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C125" s="13">
+        <v>1591</v>
+      </c>
+      <c r="D125" s="13">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C126" s="13">
+        <v>1595</v>
+      </c>
+      <c r="D126" s="13">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C127" s="13">
+        <v>1596</v>
+      </c>
+      <c r="D127" s="13">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C128" s="13">
+        <v>1597</v>
+      </c>
+      <c r="D128" s="13">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C129" s="13">
+        <v>1490</v>
+      </c>
+      <c r="D129" s="13">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C130" s="13">
+        <v>1510</v>
+      </c>
+      <c r="D130" s="13">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C131" s="13">
+        <v>1534</v>
+      </c>
+      <c r="D131" s="13">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C132" s="13">
+        <v>1535</v>
+      </c>
+      <c r="D132" s="13">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C133" s="13">
+        <v>1558</v>
+      </c>
+      <c r="D133" s="13">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C134" s="4">
+        <v>1580</v>
+      </c>
+      <c r="D134" s="13">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C135" s="13">
+        <v>1627</v>
+      </c>
+      <c r="D135" s="13">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C136" s="13">
+        <v>1656</v>
+      </c>
+      <c r="D136" s="13">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C137" s="13">
+        <v>1672</v>
+      </c>
+      <c r="D137" s="13">
+        <v>1686.2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="C138" s="13">
+        <v>1686.2</v>
+      </c>
+      <c r="D138" s="13">
+        <v>1686.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C139" s="13">
+        <v>1518</v>
+      </c>
+      <c r="D139" s="13">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C140" s="13">
+        <v>1543</v>
+      </c>
+      <c r="D140" s="13">
+        <v>1550.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C141" s="13">
+        <v>1550.7</v>
+      </c>
+      <c r="D141" s="13">
+        <v>1550.9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="C142" s="13">
+        <v>1550.9</v>
+      </c>
+      <c r="D142" s="13">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C143" s="13">
+        <v>1580</v>
+      </c>
+      <c r="D143" s="13">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C144" s="13">
+        <v>1611</v>
+      </c>
+      <c r="D144" s="13">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C145" s="13">
+        <v>1626</v>
+      </c>
+      <c r="D145" s="13">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C146" s="13">
+        <v>1672</v>
+      </c>
+      <c r="D146" s="13">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C147" s="4">
+        <v>1299</v>
+      </c>
+      <c r="D147" s="4">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C148" s="4">
+        <v>1326</v>
+      </c>
+      <c r="D148" s="4">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C149" s="4">
+        <v>1362</v>
+      </c>
+      <c r="D149" s="4">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C150" s="4">
+        <v>1389</v>
+      </c>
+      <c r="D150" s="4">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C151" s="4">
+        <v>1413</v>
+      </c>
+      <c r="D151" s="4">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C152" s="4">
+        <v>1421</v>
+      </c>
+      <c r="D152" s="4">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C153" s="4">
+        <v>1444</v>
+      </c>
+      <c r="D153" s="4">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C154" s="4">
+        <v>1451</v>
+      </c>
+      <c r="D154" s="4">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C155" s="4">
+        <v>1481</v>
+      </c>
+      <c r="D155" s="4">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C156" s="4">
+        <v>1512</v>
+      </c>
+      <c r="D156" s="4">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C157" s="4">
+        <v>1520</v>
+      </c>
+      <c r="D157" s="4">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C158" s="4">
+        <v>1566</v>
+      </c>
+      <c r="D158" s="4">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C159" s="4">
+        <v>1574</v>
+      </c>
+      <c r="D159" s="4">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C160" s="4">
+        <v>1595</v>
+      </c>
+      <c r="D160" s="4">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C161" s="4">
+        <v>1603</v>
+      </c>
+      <c r="D161" s="4">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C162" s="4">
+        <v>1617</v>
+      </c>
+      <c r="D162" s="4">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C163" s="4">
+        <v>1622</v>
+      </c>
+      <c r="D163" s="4">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C164" s="4">
+        <v>1618</v>
+      </c>
+      <c r="D164" s="4">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C165" s="4">
+        <v>1623</v>
+      </c>
+      <c r="D165" s="4">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C166" s="4">
+        <v>1640</v>
+      </c>
+      <c r="D166" s="4">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C167" s="4">
+        <v>1648</v>
+      </c>
+      <c r="D167" s="4">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C168" s="4">
+        <v>1687</v>
+      </c>
+      <c r="D168" s="4">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C169" s="4">
+        <v>1691</v>
+      </c>
+      <c r="D169" s="4">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C170" s="4">
+        <v>1695</v>
+      </c>
+      <c r="D170" s="4">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C171" s="4">
+        <v>1703</v>
+      </c>
+      <c r="D171" s="4">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C172" s="4">
+        <v>1730</v>
+      </c>
+      <c r="D172" s="4">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C173" s="4">
+        <v>1754</v>
+      </c>
+      <c r="D173" s="4">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C174" s="4">
+        <v>1757</v>
+      </c>
+      <c r="D174" s="4">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C175" s="4">
+        <v>1774</v>
+      </c>
+      <c r="D175" s="4">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C176" s="4">
+        <v>1789</v>
+      </c>
+      <c r="D176" s="4">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C177" s="4">
+        <v>1807</v>
+      </c>
+      <c r="D177" s="4">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C178" s="4">
+        <v>1808</v>
+      </c>
+      <c r="D178" s="4">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C179" s="4">
+        <v>1839</v>
+      </c>
+      <c r="D179" s="4">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C180" s="4">
+        <v>1861</v>
+      </c>
+      <c r="D180" s="4">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C181" s="4">
+        <v>1876</v>
+      </c>
+      <c r="D181" s="4">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C182" s="4">
+        <v>1876</v>
+      </c>
+      <c r="D182" s="4">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C183" s="4">
+        <v>1909</v>
+      </c>
+      <c r="D183" s="4">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C184" s="4">
+        <v>1918</v>
+      </c>
+      <c r="D184" s="4">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C185" s="4">
+        <v>1501</v>
+      </c>
+      <c r="D185" s="4">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C186" s="4">
+        <v>1524</v>
+      </c>
+      <c r="D186" s="4">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C187" s="4">
+        <v>1576</v>
+      </c>
+      <c r="D187" s="4">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C188" s="4">
+        <v>1578</v>
+      </c>
+      <c r="D188" s="4">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C189" s="4">
+        <v>1588</v>
+      </c>
+      <c r="D189" s="4">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C190" s="4">
+        <v>1629</v>
+      </c>
+      <c r="D190" s="4">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A191" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C191" s="4">
+        <v>1642</v>
+      </c>
+      <c r="D191" s="4">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C192" s="4">
+        <v>1666</v>
+      </c>
+      <c r="D192" s="4">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C193" s="4">
+        <v>1694</v>
+      </c>
+      <c r="D193" s="4">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C194" s="4">
+        <v>1500</v>
+      </c>
+      <c r="D194" s="4">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C195" s="4">
+        <v>1510</v>
+      </c>
+      <c r="D195" s="4">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C196" s="4">
+        <v>1512</v>
+      </c>
+      <c r="D196" s="4">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C197" s="4">
+        <v>1533</v>
+      </c>
+      <c r="D197" s="4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C198" s="4">
+        <v>1539</v>
+      </c>
+      <c r="D198" s="4">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C199" s="4">
+        <v>1550</v>
+      </c>
+      <c r="D199" s="4">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C200" s="4">
+        <v>1557</v>
+      </c>
+      <c r="D200" s="4">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C201" s="4">
+        <v>1598</v>
+      </c>
+      <c r="D201" s="4">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C202" s="4">
+        <v>1599</v>
+      </c>
+      <c r="D202" s="4">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C203" s="4">
+        <v>1644</v>
+      </c>
+      <c r="D203" s="4">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C204" s="4">
+        <v>1663</v>
+      </c>
+      <c r="D204" s="4">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C205" s="4">
+        <v>1665</v>
+      </c>
+      <c r="D205" s="4">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C206" s="4">
+        <v>1667</v>
+      </c>
+      <c r="D206" s="4">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C207" s="4">
+        <v>1694</v>
+      </c>
+      <c r="D207" s="4">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C208" s="4">
+        <v>1711</v>
+      </c>
+      <c r="D208" s="4">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C209" s="4">
+        <v>1712</v>
+      </c>
+      <c r="D209" s="4">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C210" s="4">
+        <v>1713</v>
+      </c>
+      <c r="D210" s="4">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C211" s="4">
+        <v>1714</v>
+      </c>
+      <c r="D211" s="4">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C212" s="4">
+        <v>1716</v>
+      </c>
+      <c r="D212" s="4">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C213" s="4">
+        <v>1717</v>
+      </c>
+      <c r="D213" s="4">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C214" s="4">
+        <v>1717</v>
+      </c>
+      <c r="D214" s="4">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C215" s="4">
+        <v>1726</v>
+      </c>
+      <c r="D215" s="4">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C216" s="4">
+        <v>1747</v>
+      </c>
+      <c r="D216" s="4">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C217" s="4">
+        <v>1749</v>
+      </c>
+      <c r="D217" s="4">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C218" s="4">
+        <v>1750</v>
+      </c>
+      <c r="D218" s="4">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C219" s="4">
+        <v>1756</v>
+      </c>
+      <c r="D219" s="4">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C220" s="4">
+        <v>1760</v>
+      </c>
+      <c r="D220" s="4">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C221" s="4">
+        <v>1785</v>
+      </c>
+      <c r="D221" s="4">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C222" s="4">
+        <v>275</v>
+      </c>
+      <c r="D222" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C223" s="4">
+        <v>600</v>
+      </c>
+      <c r="D223" s="4">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C224" s="4">
+        <v>630</v>
+      </c>
+      <c r="D224" s="4">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C225" s="4">
+        <v>668</v>
+      </c>
+      <c r="D225" s="4">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C226" s="4">
+        <v>670</v>
+      </c>
+      <c r="D226" s="4">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C227" s="4">
+        <v>695</v>
+      </c>
+      <c r="D227" s="4">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C228" s="4">
+        <v>722</v>
+      </c>
+      <c r="D228" s="4">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C229" s="4">
+        <v>731</v>
+      </c>
+      <c r="D229" s="4">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C230" s="4">
+        <v>796</v>
+      </c>
+      <c r="D230" s="4">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C231" s="4">
+        <v>846</v>
+      </c>
+      <c r="D231" s="4">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C232" s="4">
+        <v>869</v>
+      </c>
+      <c r="D232" s="4">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C233" s="4">
+        <v>901</v>
+      </c>
+      <c r="D233" s="4">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A234" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C234" s="4">
+        <v>-185</v>
+      </c>
+      <c r="D234" s="4">
+        <v>-149</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A235" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C235" s="4">
+        <v>-149</v>
+      </c>
+      <c r="D235" s="4">
+        <v>-141</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A236" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C236" s="4">
+        <v>-141</v>
+      </c>
+      <c r="D236" s="4">
+        <v>-131</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A237" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C237" s="4">
+        <v>-131</v>
+      </c>
+      <c r="D237" s="4">
+        <v>-124</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A238" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C238" s="4">
+        <v>-124</v>
+      </c>
+      <c r="D238" s="4">
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A239" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C239" s="4">
+        <v>-122</v>
+      </c>
+      <c r="D239" s="4">
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A240" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C240" s="4">
+        <v>-119</v>
+      </c>
+      <c r="D240" s="4">
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A241" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C241" s="4">
+        <v>-116</v>
+      </c>
+      <c r="D241" s="4">
+        <v>-101</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A242" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C242" s="4">
+        <v>-101</v>
+      </c>
+      <c r="D242" s="4">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A243" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C243" s="4">
+        <v>-83</v>
+      </c>
+      <c r="D243" s="4">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A244" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C244" s="4">
+        <v>-73</v>
+      </c>
+      <c r="D244" s="4">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A245" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C245" s="4">
+        <v>-73</v>
+      </c>
+      <c r="D245" s="4">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A246" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C246" s="4">
+        <v>-66</v>
+      </c>
+      <c r="D246" s="4">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A247" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C247" s="4">
+        <v>-52</v>
+      </c>
+      <c r="D247" s="4">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A248" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C248" s="4">
+        <v>-40</v>
+      </c>
+      <c r="D248" s="4">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A249" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C249" s="4">
+        <v>-30</v>
+      </c>
+      <c r="D249" s="4">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A250" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C250" s="4">
+        <v>-28</v>
+      </c>
+      <c r="D250" s="4">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A251" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C251" s="4">
+        <v>-24</v>
+      </c>
+      <c r="D251" s="4">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A252" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C252" s="4">
+        <v>-230</v>
+      </c>
+      <c r="D252" s="4">
+        <v>-207</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A253" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C253" s="4">
+        <v>-207</v>
+      </c>
+      <c r="D253" s="4">
+        <v>-189</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A254" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C254" s="4">
+        <v>-189</v>
+      </c>
+      <c r="D254" s="4">
+        <v>-181</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A255" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C255" s="4">
+        <v>-181</v>
+      </c>
+      <c r="D255" s="4">
+        <v>-167</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A256" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C256" s="4">
+        <v>-167</v>
+      </c>
+      <c r="D256" s="4">
+        <v>-158</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A257" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C257" s="4">
+        <v>-158</v>
+      </c>
+      <c r="D257" s="4">
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A258" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C258" s="4">
+        <v>-144</v>
+      </c>
+      <c r="D258" s="4">
+        <v>-142</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A259" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C259" s="4">
+        <v>-142</v>
+      </c>
+      <c r="D259" s="4">
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A260" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C260" s="4">
+        <v>-138</v>
+      </c>
+      <c r="D260" s="4">
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A261" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C261" s="4">
+        <v>-121</v>
+      </c>
+      <c r="D261" s="4">
+        <v>-101</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A262" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C262" s="4">
+        <v>-101</v>
+      </c>
+      <c r="D262" s="4">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A263" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C263" s="4">
+        <v>-78</v>
+      </c>
+      <c r="D263" s="4">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A264" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C264" s="4">
+        <v>-19</v>
+      </c>
+      <c r="D264" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A265" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C265" s="4">
+        <v>25</v>
+      </c>
+      <c r="D265" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A266" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C266" s="4">
+        <v>70</v>
+      </c>
+      <c r="D266" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A267" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C267" s="4">
+        <v>80</v>
+      </c>
+      <c r="D267" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A268" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C268" s="4">
+        <v>95</v>
+      </c>
+      <c r="D268" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A269" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C269" s="4">
+        <v>125</v>
+      </c>
+      <c r="D269" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A270" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C270" s="4">
+        <v>145</v>
+      </c>
+      <c r="D270" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A271" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C271" s="4">
+        <v>160</v>
+      </c>
+      <c r="D271" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A272" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C272" s="4">
+        <v>180</v>
+      </c>
+      <c r="D272" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A273" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C273" s="4">
+        <v>220</v>
+      </c>
+      <c r="D273" s="4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A274" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C274" s="4">
+        <v>230</v>
+      </c>
+      <c r="D274" s="4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A275" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C275" s="4">
+        <v>235</v>
+      </c>
+      <c r="D275" s="4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A276" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C276" s="4">
+        <v>238</v>
+      </c>
+      <c r="D276" s="4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A277" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C277" s="4">
+        <v>246</v>
+      </c>
+      <c r="D277" s="4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A278" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C278" s="4">
+        <v>251</v>
+      </c>
+      <c r="D278" s="4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A279" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C279" s="4">
+        <v>263</v>
+      </c>
+      <c r="D279" s="4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A280" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C280" s="4">
+        <v>278</v>
+      </c>
+      <c r="D280" s="4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A281" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C281" s="4">
+        <v>-85</v>
+      </c>
+      <c r="D281" s="4">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A282" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C282" s="4">
+        <v>-60</v>
+      </c>
+      <c r="D282" s="4">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A283" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C283" s="4">
+        <v>-57</v>
+      </c>
+      <c r="D283" s="4">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A284" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C284" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D284" s="4">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A285" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C285" s="4">
+        <v>-25</v>
+      </c>
+      <c r="D285" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A286" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C286" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D286" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A287" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C287" s="4">
+        <v>10</v>
+      </c>
+      <c r="D287" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A288" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C288" s="4">
+        <v>20</v>
+      </c>
+      <c r="D288" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A289" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C289" s="4">
+        <v>78</v>
+      </c>
+      <c r="D289" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A290" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C290" s="4">
+        <v>86</v>
+      </c>
+      <c r="D290" s="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A291" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C291" s="4">
+        <v>114</v>
+      </c>
+      <c r="D291" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A292" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C292" s="4">
+        <v>125</v>
+      </c>
+      <c r="D292" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A293" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C293" s="4">
+        <v>150</v>
+      </c>
+      <c r="D293" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A294" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C294" s="4">
+        <v>178</v>
+      </c>
+      <c r="D294" s="4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A295" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C295" s="4">
+        <v>190</v>
+      </c>
+      <c r="D295" s="4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A296" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C296" s="4">
+        <v>197</v>
+      </c>
+      <c r="D296" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A297" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C297" s="4">
+        <v>198</v>
+      </c>
+      <c r="D297" s="4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A298" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C298" s="4">
+        <v>233</v>
+      </c>
+      <c r="D298" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A299" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C299" s="4">
+        <v>-250</v>
+      </c>
+      <c r="D299" s="4">
+        <v>-225</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A300" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C300" s="4">
+        <v>-225</v>
+      </c>
+      <c r="D300" s="4">
+        <v>-210</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A301" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C301" s="4">
+        <v>-210</v>
+      </c>
+      <c r="D301" s="4">
+        <v>-205</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A302" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C302" s="4">
+        <v>-205</v>
+      </c>
+      <c r="D302" s="4">
+        <v>-195</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A303" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C303" s="4">
+        <v>-195</v>
+      </c>
+      <c r="D303" s="4">
+        <v>-190</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A304" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C304" s="4">
+        <v>-190</v>
+      </c>
+      <c r="D304" s="4">
+        <v>-185</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A305" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C305" s="4">
+        <v>-185</v>
+      </c>
+      <c r="D305" s="4">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A306" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C306" s="4">
+        <v>-180</v>
+      </c>
+      <c r="D306" s="4">
+        <v>-178</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A307" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C307" s="4">
+        <v>-178</v>
+      </c>
+      <c r="D307" s="4">
+        <v>-174</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A308" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C308" s="4">
+        <v>-174</v>
+      </c>
+      <c r="D308" s="4">
+        <v>-166</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A309" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C309" s="4">
+        <v>-166</v>
+      </c>
+      <c r="D309" s="4">
+        <v>-155</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A310" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C310" s="4">
+        <v>-155</v>
+      </c>
+      <c r="D310" s="4">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A311" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C311" s="4">
+        <v>-150</v>
+      </c>
+      <c r="D311" s="4">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A312" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C312" s="4">
+        <v>-145</v>
+      </c>
+      <c r="D312" s="4">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A313" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C313" s="4">
+        <v>-140</v>
+      </c>
+      <c r="D313" s="4">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A314" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C314" s="4">
+        <v>-135</v>
+      </c>
+      <c r="D314" s="4">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A315" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C315" s="4">
+        <v>-150</v>
+      </c>
+      <c r="D315" s="4">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A316" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C316" s="4">
+        <v>-120</v>
+      </c>
+      <c r="D316" s="4">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A317" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C317" s="4">
+        <v>-80</v>
+      </c>
+      <c r="D317" s="4">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A318" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C318" s="4">
+        <v>-40</v>
+      </c>
+      <c r="D318" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A319" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C319" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D319" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A320" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C320" s="4">
+        <v>20</v>
+      </c>
+      <c r="D320" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A321" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C321" s="4">
+        <v>40</v>
+      </c>
+      <c r="D321" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A322" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C322" s="4">
+        <v>70</v>
+      </c>
+      <c r="D322" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A323" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C323" s="4">
+        <v>100</v>
+      </c>
+      <c r="D323" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A324" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C324" s="4">
+        <v>130</v>
+      </c>
+      <c r="D324" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A325" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C325" s="4">
+        <v>160</v>
+      </c>
+      <c r="D325" s="4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A326" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C326" s="4">
+        <v>190</v>
+      </c>
+      <c r="D326" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C327" s="4">
+        <v>-230</v>
+      </c>
+      <c r="D327" s="4">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C328" s="4">
+        <v>-200</v>
+      </c>
+      <c r="D328" s="4">
+        <v>-195</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C329" s="4">
+        <v>-195</v>
+      </c>
+      <c r="D329" s="4">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C330" s="4">
+        <v>-180</v>
+      </c>
+      <c r="D330" s="4">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C331" s="4">
+        <v>-150</v>
+      </c>
+      <c r="D331" s="4">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C332" s="4">
+        <v>-125</v>
+      </c>
+      <c r="D332" s="4">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C333" s="4">
+        <v>-100</v>
+      </c>
+      <c r="D333" s="4">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C334" s="4">
+        <v>-70</v>
+      </c>
+      <c r="D334" s="4">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C335" s="4">
+        <v>-45</v>
+      </c>
+      <c r="D335" s="4">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C336" s="4">
+        <v>-20</v>
+      </c>
+      <c r="D336" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C337" s="4">
+        <v>10</v>
+      </c>
+      <c r="D337" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C338" s="4">
+        <v>40</v>
+      </c>
+      <c r="D338" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C339" s="4">
+        <v>70</v>
+      </c>
+      <c r="D339" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C340" s="4">
+        <v>100</v>
+      </c>
+      <c r="D340" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C341" s="4">
+        <v>125</v>
+      </c>
+      <c r="D341" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C342" s="4">
+        <v>150</v>
+      </c>
+      <c r="D342" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C343" s="4">
+        <v>180</v>
+      </c>
+      <c r="D343" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C344" s="4">
+        <v>200</v>
+      </c>
+      <c r="D344" s="4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C345" s="4">
+        <v>230</v>
+      </c>
+      <c r="D345" s="4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C346" s="4">
+        <v>260</v>
+      </c>
+      <c r="D346" s="4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C347" s="4">
+        <v>290</v>
+      </c>
+      <c r="D347" s="4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C348" s="4">
+        <v>320</v>
+      </c>
+      <c r="D348" s="4">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C349" s="4">
+        <v>355</v>
+      </c>
+      <c r="D349" s="4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C350" s="4">
+        <v>385</v>
+      </c>
+      <c r="D350" s="4">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C351" s="4">
+        <v>410</v>
+      </c>
+      <c r="D351" s="4">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C352" s="4">
+        <v>440</v>
+      </c>
+      <c r="D352" s="4">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C353" s="4">
+        <v>470</v>
+      </c>
+      <c r="D353" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C354" s="4">
+        <v>500</v>
+      </c>
+      <c r="D354" s="4">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C355" s="4">
+        <v>530</v>
+      </c>
+      <c r="D355" s="4">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C356" s="4">
+        <v>560</v>
+      </c>
+      <c r="D356" s="4">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C357" s="4">
+        <v>590</v>
+      </c>
+      <c r="D357" s="4">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C358" s="4">
+        <v>620</v>
+      </c>
+      <c r="D358" s="4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C359" s="4">
+        <v>-600</v>
+      </c>
+      <c r="D359" s="4">
+        <v>-575</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C360" s="4">
+        <v>-575</v>
+      </c>
+      <c r="D360" s="4">
+        <v>-550</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C361" s="4">
+        <v>-550</v>
+      </c>
+      <c r="D361" s="4">
+        <v>-525</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C362" s="4">
+        <v>-525</v>
+      </c>
+      <c r="D362" s="4">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C363" s="4">
+        <v>-500</v>
+      </c>
+      <c r="D363" s="4">
+        <v>-475</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C364" s="4">
+        <v>-475</v>
+      </c>
+      <c r="D364" s="4">
+        <v>-450</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C365" s="4">
+        <v>-450</v>
+      </c>
+      <c r="D365" s="4">
+        <v>-425</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C366" s="4">
+        <v>-425</v>
+      </c>
+      <c r="D366" s="4">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C367" s="4">
+        <v>-400</v>
+      </c>
+      <c r="D367" s="4">
+        <v>-375</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C368" s="4">
+        <v>-375</v>
+      </c>
+      <c r="D368" s="4">
+        <v>-350</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C369" s="4">
+        <v>-350</v>
+      </c>
+      <c r="D369" s="4">
+        <v>-325</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C370" s="4">
+        <v>-325</v>
+      </c>
+      <c r="D370" s="4">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C371" s="4">
+        <v>-300</v>
+      </c>
+      <c r="D371" s="4">
+        <v>-275</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C372" s="4">
+        <v>-275</v>
+      </c>
+      <c r="D372" s="4">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C373" s="4">
+        <v>-250</v>
+      </c>
+      <c r="D373" s="4">
+        <v>-225</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C374" s="4">
+        <v>-225</v>
+      </c>
+      <c r="D374" s="4">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C375" s="4">
+        <v>-200</v>
+      </c>
+      <c r="D375" s="4">
+        <v>-175</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C376" s="4">
+        <v>-175</v>
+      </c>
+      <c r="D376" s="4">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C377" s="4">
+        <v>-150</v>
+      </c>
+      <c r="D377" s="4">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C378" s="4">
+        <v>-125</v>
+      </c>
+      <c r="D378" s="4">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A379" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C379" s="4">
+        <v>543</v>
+      </c>
+      <c r="D379" s="4">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A380" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C380" s="4">
+        <v>566</v>
+      </c>
+      <c r="D380" s="4">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A381" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C381" s="4">
+        <v>597</v>
+      </c>
+      <c r="D381" s="4">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A382" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C382" s="4">
+        <v>609</v>
+      </c>
+      <c r="D382" s="4">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A383" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C383" s="4">
+        <v>642</v>
+      </c>
+      <c r="D383" s="4">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A384" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C384" s="4">
+        <v>654</v>
+      </c>
+      <c r="D384" s="4">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A385" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C385" s="4">
+        <v>661</v>
+      </c>
+      <c r="D385" s="4">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A386" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C386" s="4">
+        <v>686</v>
+      </c>
+      <c r="D386" s="4">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A387" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C387" s="4">
+        <v>696</v>
+      </c>
+      <c r="D387" s="4">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A388" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C388" s="4">
+        <v>733</v>
+      </c>
+      <c r="D388" s="4">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A389" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C389" s="4">
+        <v>973</v>
+      </c>
+      <c r="D389" s="4">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A390" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C390" s="4">
+        <v>997</v>
+      </c>
+      <c r="D390" s="4">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A391" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C391" s="4">
+        <v>1008</v>
+      </c>
+      <c r="D391" s="4">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A392" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C392" s="4">
+        <v>1015</v>
+      </c>
+      <c r="D392" s="4">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A393" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C393" s="4">
+        <v>1042</v>
+      </c>
+      <c r="D393" s="4">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A394" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C394" s="4">
+        <v>1068</v>
+      </c>
+      <c r="D394" s="4">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A395" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C395" s="4">
+        <v>1086</v>
+      </c>
+      <c r="D395" s="4">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A396" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C396" s="4">
+        <v>1106</v>
+      </c>
+      <c r="D396" s="4">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A397" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C397" s="4">
+        <v>1118</v>
+      </c>
+      <c r="D397" s="4">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A398" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C398" s="4">
+        <v>1151</v>
+      </c>
+      <c r="D398" s="4">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A399" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C399" s="4">
+        <v>1161</v>
+      </c>
+      <c r="D399" s="4">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A400" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C400" s="4">
+        <v>1181</v>
+      </c>
+      <c r="D400" s="4">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A401" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C401" s="4">
+        <v>1187</v>
+      </c>
+      <c r="D401" s="4">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A402" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C402" s="4">
+        <v>-345</v>
+      </c>
+      <c r="D402" s="4">
+        <v>-320</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A403" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C403" s="4">
+        <v>-320</v>
+      </c>
+      <c r="D403" s="4">
+        <v>-310</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A404" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C404" s="4">
+        <v>-310</v>
+      </c>
+      <c r="D404" s="4">
+        <v>-290</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A405" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C405" s="4">
+        <v>-290</v>
+      </c>
+      <c r="D405" s="4">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A406" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C406" s="4">
+        <v>-270</v>
+      </c>
+      <c r="D406" s="4">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A407" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C407" s="4">
+        <v>-250</v>
+      </c>
+      <c r="D407" s="4">
+        <v>-230</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A408" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C408" s="4">
+        <v>-230</v>
+      </c>
+      <c r="D408" s="4">
+        <v>-210</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A409" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C409" s="4">
+        <v>-210</v>
+      </c>
+      <c r="D409" s="4">
+        <v>-190</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A410" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C410" s="4">
+        <v>-190</v>
+      </c>
+      <c r="D410" s="4">
+        <v>-170</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A411" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C411" s="4">
+        <v>-170</v>
+      </c>
+      <c r="D411" s="4">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A412" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C412" s="4">
+        <v>-150</v>
+      </c>
+      <c r="D412" s="4">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A413" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C413" s="4">
+        <v>-130</v>
+      </c>
+      <c r="D413" s="4">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A414" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C414" s="4">
+        <v>-110</v>
+      </c>
+      <c r="D414" s="4">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A415" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C415" s="4">
+        <v>-90</v>
+      </c>
+      <c r="D415" s="4">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A416" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C416" s="4">
+        <v>-70</v>
+      </c>
+      <c r="D416" s="4">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A417" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C417" s="4">
+        <v>-50</v>
+      </c>
+      <c r="D417" s="4">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A418" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C418" s="4">
+        <v>-30</v>
+      </c>
+      <c r="D418" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A419" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C419" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D419" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A420" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C420" s="4">
+        <v>10</v>
+      </c>
+      <c r="D420" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A421" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C421" s="4">
+        <v>30</v>
+      </c>
+      <c r="D421" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A422" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C422" s="4">
+        <v>50</v>
+      </c>
+      <c r="D422" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A423" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C423" s="4">
+        <v>70</v>
+      </c>
+      <c r="D423" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A424" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C424" s="4">
+        <v>90</v>
+      </c>
+      <c r="D424" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A425" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C425" s="4">
+        <v>110</v>
+      </c>
+      <c r="D425" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A426" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C426" s="4">
+        <v>130</v>
+      </c>
+      <c r="D426" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A427" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C427" s="4">
+        <v>150</v>
+      </c>
+      <c r="D427" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A428" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="C428" s="4">
+        <v>170</v>
+      </c>
+      <c r="D428" s="4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A429" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C429" s="4">
+        <v>190</v>
+      </c>
+      <c r="D429" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A430" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C430" s="4">
+        <v>210</v>
+      </c>
+      <c r="D430" s="4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A431" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="C431" s="4">
+        <v>230</v>
+      </c>
+      <c r="D431" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="30" x14ac:dyDescent="0.3">
+      <c r="A432" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B432" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C432" s="4">
+        <v>250</v>
+      </c>
+      <c r="D432" s="4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A433" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C433" s="4">
+        <v>1097</v>
+      </c>
+      <c r="D433" s="4">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A434" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C434" s="4">
+        <v>1107</v>
+      </c>
+      <c r="D434" s="4">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A435" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C435" s="4">
+        <v>1119</v>
+      </c>
+      <c r="D435" s="4">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A436" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="C436" s="4">
+        <v>1159</v>
+      </c>
+      <c r="D436" s="4">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A437" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="C437" s="4">
+        <v>1179</v>
+      </c>
+      <c r="D437" s="4">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A438" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C438" s="4">
+        <v>1206</v>
+      </c>
+      <c r="D438" s="4">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A439" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C439" s="4">
+        <v>1223</v>
+      </c>
+      <c r="D439" s="4">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A440" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C440" s="4">
+        <v>1230</v>
+      </c>
+      <c r="D440" s="4">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A441" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C441" s="4">
+        <v>1245</v>
+      </c>
+      <c r="D441" s="4">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A442" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C442" s="4">
+        <v>1259</v>
+      </c>
+      <c r="D442" s="4">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A443" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C443" s="4">
+        <v>1266</v>
+      </c>
+      <c r="D443" s="4">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A444" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B444" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C444" s="4">
+        <v>1271</v>
+      </c>
+      <c r="D444" s="4">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A445" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C445" s="4">
+        <v>1293</v>
+      </c>
+      <c r="D445" s="4">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A446" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C446" s="4">
+        <v>1294</v>
+      </c>
+      <c r="D446" s="4">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A447" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B447" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C447" s="4">
+        <v>1301</v>
+      </c>
+      <c r="D447" s="4">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A448" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="C448" s="4">
+        <v>1311</v>
+      </c>
+      <c r="D448" s="4">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A449" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C449" s="4">
+        <v>1338</v>
+      </c>
+      <c r="D449" s="4">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A450" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C450" s="4">
+        <v>1342</v>
+      </c>
+      <c r="D450" s="4">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A451" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C451" s="4">
+        <v>1357</v>
+      </c>
+      <c r="D451" s="4">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A452" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C452" s="4">
+        <v>1375</v>
+      </c>
+      <c r="D452" s="4">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A453" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C453" s="4">
+        <v>1387</v>
+      </c>
+      <c r="D453" s="4">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A454" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="C454" s="4">
+        <v>1408</v>
+      </c>
+      <c r="D454" s="4">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A455" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C455" s="4">
+        <v>1415</v>
+      </c>
+      <c r="D455" s="4">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A456" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C456" s="4">
+        <v>1417</v>
+      </c>
+      <c r="D456" s="4">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A457" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C457" s="4">
+        <v>1430</v>
+      </c>
+      <c r="D457" s="4">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C458" s="4">
+        <v>855</v>
+      </c>
+      <c r="D458" s="4">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C459" s="4">
+        <v>883</v>
+      </c>
+      <c r="D459" s="4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C460" s="4">
+        <v>900</v>
+      </c>
+      <c r="D460" s="4">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C461" s="4">
+        <v>913</v>
+      </c>
+      <c r="D461" s="4">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C462" s="4">
+        <v>917</v>
+      </c>
+      <c r="D462" s="4">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="C463" s="4">
+        <v>922</v>
+      </c>
+      <c r="D463" s="4">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B464" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C464" s="4">
+        <v>933</v>
+      </c>
+      <c r="D464" s="4">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C465" s="4">
+        <v>939</v>
+      </c>
+      <c r="D465" s="4">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C466" s="4">
+        <v>947</v>
+      </c>
+      <c r="D466" s="4">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C467" s="4">
+        <v>949</v>
+      </c>
+      <c r="D467" s="4">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B468" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C468" s="4">
+        <v>958</v>
+      </c>
+      <c r="D468" s="4">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C469" s="4">
+        <v>959</v>
+      </c>
+      <c r="D469" s="4">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C470" s="4">
+        <v>960</v>
+      </c>
+      <c r="D470" s="4">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C471" s="4">
+        <v>972</v>
+      </c>
+      <c r="D471" s="4">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B472" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C472" s="4">
+        <v>973</v>
+      </c>
+      <c r="D472" s="4">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B473" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C473" s="4">
+        <v>974</v>
+      </c>
+      <c r="D473" s="4">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="C474" s="4">
+        <v>975</v>
+      </c>
+      <c r="D474" s="4">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="C475" s="4">
+        <v>978</v>
+      </c>
+      <c r="D475" s="4">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C476" s="4">
+        <v>979</v>
+      </c>
+      <c r="D476" s="4">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="C477" s="4">
+        <v>982</v>
+      </c>
+      <c r="D477" s="4">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C478" s="4">
+        <v>843</v>
+      </c>
+      <c r="D478" s="4">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C479" s="4">
+        <v>850</v>
+      </c>
+      <c r="D479" s="4">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B480" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="C480" s="4">
+        <v>865</v>
+      </c>
+      <c r="D480" s="4">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B481" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C481" s="4">
+        <v>892</v>
+      </c>
+      <c r="D481" s="4">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B482" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C482" s="4">
+        <v>917</v>
+      </c>
+      <c r="D482" s="4">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C483" s="4">
+        <v>920</v>
+      </c>
+      <c r="D483" s="4">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="C484" s="4">
+        <v>925</v>
+      </c>
+      <c r="D484" s="4">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B485" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C485" s="4">
+        <v>927</v>
+      </c>
+      <c r="D485" s="4">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B486" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C486" s="4">
+        <v>928</v>
+      </c>
+      <c r="D486" s="4">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B487" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C487" s="4">
+        <v>948</v>
+      </c>
+      <c r="D487" s="4">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B488" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C488" s="4">
+        <v>952</v>
+      </c>
+      <c r="D488" s="4">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B489" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C489" s="4">
+        <v>968</v>
+      </c>
+      <c r="D489" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B490" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C490" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D490" s="4">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B491" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="C491" s="4">
+        <v>1013</v>
+      </c>
+      <c r="D491" s="4">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B492" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C492" s="4">
+        <v>1021</v>
+      </c>
+      <c r="D492" s="4">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C493" s="4">
+        <v>1025</v>
+      </c>
+      <c r="D493" s="4">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C494" s="4">
+        <v>1026</v>
+      </c>
+      <c r="D494" s="4">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B495" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C495" s="4">
+        <v>1003</v>
+      </c>
+      <c r="D495" s="4">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B496" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C496" s="4">
+        <v>1004</v>
+      </c>
+      <c r="D496" s="4">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B497" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C497" s="4">
+        <v>1028</v>
+      </c>
+      <c r="D497" s="4">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B498" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C498" s="4">
+        <v>1063</v>
+      </c>
+      <c r="D498" s="4">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C499" s="4">
+        <v>1089</v>
+      </c>
+      <c r="D499" s="4">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B500" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C500" s="4">
+        <v>1101</v>
+      </c>
+      <c r="D500" s="4">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="C501" s="4">
+        <v>1111</v>
+      </c>
+      <c r="D501" s="4">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B502" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C502" s="4">
+        <v>1113</v>
+      </c>
+      <c r="D502" s="4">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B503" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="C503" s="4">
+        <v>1128</v>
+      </c>
+      <c r="D503" s="4">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B504" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="C504" s="4">
+        <v>1128</v>
+      </c>
+      <c r="D504" s="4">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B505" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C505" s="4">
+        <v>1149</v>
+      </c>
+      <c r="D505" s="4">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C506" s="4">
+        <v>1159</v>
+      </c>
+      <c r="D506" s="4">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="C507" s="4">
+        <v>1165</v>
+      </c>
+      <c r="D507" s="4">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B508" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C508" s="4">
+        <v>1171</v>
+      </c>
+      <c r="D508" s="4">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B509" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C509" s="4">
+        <v>1186</v>
+      </c>
+      <c r="D509" s="4">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B510" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C510" s="4">
+        <v>735</v>
+      </c>
+      <c r="D510" s="4">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B511" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="C511" s="4">
+        <v>756</v>
+      </c>
+      <c r="D511" s="4">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B512" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="C512" s="4">
+        <v>777</v>
+      </c>
+      <c r="D512" s="4">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B513" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C513" s="4">
+        <v>793</v>
+      </c>
+      <c r="D513" s="4">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B514" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C514" s="4">
+        <v>814</v>
+      </c>
+      <c r="D514" s="4">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B515" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C515" s="4">
+        <v>878</v>
+      </c>
+      <c r="D515" s="4">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B516" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C516" s="4">
+        <v>914</v>
+      </c>
+      <c r="D516" s="4">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B517" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C517" s="4">
+        <v>929</v>
+      </c>
+      <c r="D517" s="4">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B518" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C518" s="4">
+        <v>930</v>
+      </c>
+      <c r="D518" s="4">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B519" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C519" s="4">
+        <v>936</v>
+      </c>
+      <c r="D519" s="4">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B520" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C520" s="4">
+        <v>939</v>
+      </c>
+      <c r="D520" s="4">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B521" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C521" s="4">
+        <v>967</v>
+      </c>
+      <c r="D521" s="4">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B522" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C522" s="4">
+        <v>972</v>
+      </c>
+      <c r="D522" s="4">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B523" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C523" s="4">
+        <v>973</v>
+      </c>
+      <c r="D523" s="4">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B524" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C524" s="4">
+        <v>982</v>
+      </c>
+      <c r="D524" s="4">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B525" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C525" s="4">
+        <v>983</v>
+      </c>
+      <c r="D525" s="4">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B526" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="C526" s="4">
+        <v>996</v>
+      </c>
+      <c r="D526" s="4">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B527" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C527" s="4">
+        <v>997</v>
+      </c>
+      <c r="D527" s="4">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B528" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C528" s="4">
+        <v>998</v>
+      </c>
+      <c r="D528" s="4">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A529" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B529" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C529" s="4">
+        <v>-247</v>
+      </c>
+      <c r="D529" s="4">
+        <v>-211</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A530" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B530" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C530" s="4">
+        <v>-211</v>
+      </c>
+      <c r="D530" s="4">
+        <v>-191</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A531" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B531" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C531" s="4">
+        <v>-191</v>
+      </c>
+      <c r="D531" s="4">
+        <v>-176</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A532" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B532" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C532" s="4">
+        <v>-176</v>
+      </c>
+      <c r="D532" s="4">
+        <v>-171</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A533" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B533" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C533" s="4">
+        <v>-171</v>
+      </c>
+      <c r="D533" s="4">
+        <v>-132</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A534" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B534" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C534" s="4">
+        <v>-132</v>
+      </c>
+      <c r="D534" s="4">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A535" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B535" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C535" s="4">
+        <v>-127</v>
+      </c>
+      <c r="D535" s="4">
+        <v>-124</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A536" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B536" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C536" s="4">
+        <v>-124</v>
+      </c>
+      <c r="D536" s="4">
+        <v>-87</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A537" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B537" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C537" s="4">
+        <v>-95</v>
+      </c>
+      <c r="D537" s="4">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A538" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B538" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C538" s="4">
+        <v>-90</v>
+      </c>
+      <c r="D538" s="4">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A539" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B539" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C539" s="4">
+        <v>-80</v>
+      </c>
+      <c r="D539" s="4">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A540" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B540" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C540" s="4">
+        <v>-70</v>
+      </c>
+      <c r="D540" s="4">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A541" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B541" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="C541" s="4">
+        <v>-57</v>
+      </c>
+      <c r="D541" s="4">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A542" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B542" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C542" s="4">
+        <v>-57</v>
+      </c>
+      <c r="D542" s="4">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A543" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B543" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C543" s="4">
+        <v>-38</v>
+      </c>
+      <c r="D543" s="4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A544" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B544" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C544" s="4">
+        <v>-32</v>
+      </c>
+      <c r="D544" s="4">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A545" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B545" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C545" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D545" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A546" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B546" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="C546" s="4">
+        <v>38</v>
+      </c>
+      <c r="D546" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A547" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B547" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C547" s="4">
+        <v>40</v>
+      </c>
+      <c r="D547" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A548" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B548" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="C548" s="4">
+        <v>51</v>
+      </c>
+      <c r="D548" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A549" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B549" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="C549" s="4">
+        <v>78</v>
+      </c>
+      <c r="D549" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A550" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B550" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="C550" s="4">
+        <v>109</v>
+      </c>
+      <c r="D550" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A551" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B551" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="C551" s="4">
+        <v>128</v>
+      </c>
+      <c r="D551" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A552" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B552" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C552" s="4">
+        <v>148</v>
+      </c>
+      <c r="D552" s="4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A553" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B553" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C553" s="4">
+        <v>191</v>
+      </c>
+      <c r="D553" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A554" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B554" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C554" s="4">
+        <v>208</v>
+      </c>
+      <c r="D554" s="4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A555" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B555" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C555" s="4">
+        <v>-492</v>
+      </c>
+      <c r="D555" s="4">
+        <v>-460</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A556" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B556" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C556" s="4">
+        <v>-460</v>
+      </c>
+      <c r="D556" s="4">
+        <v>-428</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A557" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B557" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C557" s="4">
+        <v>-428</v>
+      </c>
+      <c r="D557" s="4">
+        <v>-396</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A558" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B558" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C558" s="4">
+        <v>-396</v>
+      </c>
+      <c r="D558" s="4">
+        <v>-364</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A559" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B559" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C559" s="4">
+        <v>-364</v>
+      </c>
+      <c r="D559" s="4">
+        <v>-332</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A560" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B560" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C560" s="4">
+        <v>-600</v>
+      </c>
+      <c r="D560" s="4">
+        <v>-568</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A561" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B561" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C561" s="4">
+        <v>-568</v>
+      </c>
+      <c r="D561" s="4">
+        <v>-536</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A562" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B562" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C562" s="4">
+        <v>-536</v>
+      </c>
+      <c r="D562" s="4">
+        <v>-504</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A563" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B563" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C563" s="4">
+        <v>-504</v>
+      </c>
+      <c r="D563" s="4">
+        <v>-472</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A564" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B564" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C564" s="4">
+        <v>-472</v>
+      </c>
+      <c r="D564" s="4">
+        <v>-440</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A565" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B565" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C565" s="4">
+        <v>-1600</v>
+      </c>
+      <c r="D565" s="4">
+        <v>-1580</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A566" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B566" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C566" s="4">
+        <v>-1580</v>
+      </c>
+      <c r="D566" s="4">
+        <v>-1560</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A567" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B567" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="C567" s="4">
+        <v>-1560</v>
+      </c>
+      <c r="D567" s="4">
+        <v>-1540</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A568" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B568" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C568" s="4">
+        <v>-1540</v>
+      </c>
+      <c r="D568" s="4">
+        <v>-1520</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A569" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B569" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="C569" s="4">
+        <v>-1520</v>
+      </c>
+      <c r="D569" s="4">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A570" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B570" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="C570" s="4">
+        <v>-1500</v>
+      </c>
+      <c r="D570" s="4">
+        <v>-1480</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A571" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B571" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="C571" s="4">
+        <v>-1480</v>
+      </c>
+      <c r="D571" s="4">
+        <v>-1460</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A572" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B572" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C572" s="4">
+        <v>-1460</v>
+      </c>
+      <c r="D572" s="4">
+        <v>-1440</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A573" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B573" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C573" s="4">
+        <v>-1440</v>
+      </c>
+      <c r="D573" s="4">
+        <v>-1420</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A574" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B574" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C574" s="4">
+        <v>-1420</v>
+      </c>
+      <c r="D574" s="4">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A575" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B575" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C575" s="4">
+        <v>-600</v>
+      </c>
+      <c r="D575" s="4">
+        <v>-580</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A576" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B576" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C576" s="4">
+        <v>-580</v>
+      </c>
+      <c r="D576" s="4">
+        <v>-560</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A577" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B577" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="C577" s="4">
+        <v>-560</v>
+      </c>
+      <c r="D577" s="4">
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A578" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B578" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="C578" s="4">
+        <v>-540</v>
+      </c>
+      <c r="D578" s="4">
+        <v>-520</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A579" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B579" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="C579" s="4">
+        <v>-520</v>
+      </c>
+      <c r="D579" s="4">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A580" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B580" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="C580" s="4">
+        <v>-500</v>
+      </c>
+      <c r="D580" s="4">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A581" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B581" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C581" s="4">
+        <v>-480</v>
+      </c>
+      <c r="D581" s="4">
+        <v>-460</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A582" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B582" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="C582" s="4">
+        <v>-460</v>
+      </c>
+      <c r="D582" s="4">
+        <v>-440</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A583" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B583" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C583" s="4">
+        <v>-440</v>
+      </c>
+      <c r="D583" s="4">
+        <v>-420</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A584" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B584" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="C584" s="4">
+        <v>-600</v>
+      </c>
+      <c r="D584" s="4">
+        <v>-580</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A585" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B585" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C585" s="4">
+        <v>-580</v>
+      </c>
+      <c r="D585" s="4">
+        <v>-560</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A586" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B586" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="C586" s="4">
+        <v>-560</v>
+      </c>
+      <c r="D586" s="4">
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A587" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B587" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="C587" s="4">
+        <v>-540</v>
+      </c>
+      <c r="D587" s="4">
+        <v>-520</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A588" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B588" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="C588" s="4">
+        <v>-520</v>
+      </c>
+      <c r="D588" s="4">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A589" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B589" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="C589" s="4">
+        <v>-500</v>
+      </c>
+      <c r="D589" s="4">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A590" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B590" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="C590" s="4">
+        <v>-480</v>
+      </c>
+      <c r="D590" s="4">
+        <v>-460</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A591" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B591" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C591" s="4">
+        <v>-460</v>
+      </c>
+      <c r="D591" s="4">
+        <v>-440</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A592" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B592" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="C592" s="4">
+        <v>-440</v>
+      </c>
+      <c r="D592" s="4">
+        <v>-420</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A593" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B593" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="C593" s="4">
+        <v>-600</v>
+      </c>
+      <c r="D593" s="4">
+        <v>-580</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A594" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B594" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C594" s="4">
+        <v>-580</v>
+      </c>
+      <c r="D594" s="4">
+        <v>-560</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A595" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B595" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C595" s="4">
+        <v>-560</v>
+      </c>
+      <c r="D595" s="4">
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A596" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B596" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C596" s="4">
+        <v>-540</v>
+      </c>
+      <c r="D596" s="4">
+        <v>-520</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A597" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B597" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="C597" s="4">
+        <v>-520</v>
+      </c>
+      <c r="D597" s="4">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A598" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B598" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="C598" s="4">
+        <v>-500</v>
+      </c>
+      <c r="D598" s="4">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A599" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B599" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C599" s="4">
+        <v>-480</v>
+      </c>
+      <c r="D599" s="4">
+        <v>-460</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A600" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B600" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="C600" s="4">
+        <v>-460</v>
+      </c>
+      <c r="D600" s="4">
+        <v>-440</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A601" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B601" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="C601" s="4">
+        <v>-440</v>
+      </c>
+      <c r="D601" s="4">
+        <v>-420</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A602" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B602" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="C602" s="4">
+        <v>-600</v>
+      </c>
+      <c r="D602" s="4">
+        <v>-580</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A603" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B603" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C603" s="4">
+        <v>-580</v>
+      </c>
+      <c r="D603" s="4">
+        <v>-560</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A604" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B604" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C604" s="4">
+        <v>-560</v>
+      </c>
+      <c r="D604" s="4">
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A605" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B605" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C605" s="4">
+        <v>-540</v>
+      </c>
+      <c r="D605" s="4">
+        <v>-520</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A606" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B606" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="C606" s="4">
+        <v>-520</v>
+      </c>
+      <c r="D606" s="4">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A607" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B607" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C607" s="4">
+        <v>-500</v>
+      </c>
+      <c r="D607" s="4">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A608" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B608" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C608" s="4">
+        <v>-480</v>
+      </c>
+      <c r="D608" s="4">
+        <v>-460</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A609" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B609" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="C609" s="4">
+        <v>-460</v>
+      </c>
+      <c r="D609" s="4">
+        <v>-440</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A610" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B610" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="C610" s="4">
+        <v>-440</v>
+      </c>
+      <c r="D610" s="4">
+        <v>-420</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A611" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B611" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="C611" s="4">
+        <v>-800</v>
+      </c>
+      <c r="D611" s="4">
+        <v>-780</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A612" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B612" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C612" s="4">
+        <v>-780</v>
+      </c>
+      <c r="D612" s="4">
+        <v>-760</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A613" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B613" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="C613" s="4">
+        <v>-760</v>
+      </c>
+      <c r="D613" s="4">
+        <v>-740</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A614" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B614" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="C614" s="4">
+        <v>-740</v>
+      </c>
+      <c r="D614" s="4">
+        <v>-720</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A615" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B615" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="C615" s="4">
+        <v>-720</v>
+      </c>
+      <c r="D615" s="4">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A616" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B616" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="C616" s="4">
+        <v>-700</v>
+      </c>
+      <c r="D616" s="4">
+        <v>-680</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A617" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B617" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C617" s="4">
+        <v>-680</v>
+      </c>
+      <c r="D617" s="4">
+        <v>-660</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A618" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B618" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="C618" s="4">
+        <v>-660</v>
+      </c>
+      <c r="D618" s="4">
+        <v>-640</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A619" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B619" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="C619" s="4">
+        <v>-640</v>
+      </c>
+      <c r="D619" s="4">
+        <v>-620</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A620" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B620" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="C620" s="4">
+        <v>-700</v>
+      </c>
+      <c r="D620" s="4">
+        <v>-680</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A621" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B621" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="C621" s="4">
+        <v>-680</v>
+      </c>
+      <c r="D621" s="4">
+        <v>-660</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A622" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B622" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="C622" s="4">
+        <v>-660</v>
+      </c>
+      <c r="D622" s="4">
+        <v>-640</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A623" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B623" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="C623" s="4">
+        <v>-640</v>
+      </c>
+      <c r="D623" s="4">
+        <v>-620</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A624" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B624" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="C624" s="4">
+        <v>-620</v>
+      </c>
+      <c r="D624" s="4">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A625" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B625" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="C625" s="4">
+        <v>-600</v>
+      </c>
+      <c r="D625" s="4">
+        <v>-580</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A626" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B626" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="C626" s="4">
+        <v>-580</v>
+      </c>
+      <c r="D626" s="4">
+        <v>-560</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A627" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B627" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="C627" s="4">
+        <v>-560</v>
+      </c>
+      <c r="D627" s="4">
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A628" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B628" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="C628" s="4">
+        <v>-540</v>
+      </c>
+      <c r="D628" s="4">
+        <v>-520</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A629" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B629" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="C629" s="4">
+        <v>-600</v>
+      </c>
+      <c r="D629" s="4">
+        <v>-580</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A630" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B630" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="C630" s="4">
+        <v>-580</v>
+      </c>
+      <c r="D630" s="4">
+        <v>-560</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A631" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B631" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="C631" s="4">
+        <v>-560</v>
+      </c>
+      <c r="D631" s="4">
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A632" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B632" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C632" s="4">
+        <v>-540</v>
+      </c>
+      <c r="D632" s="4">
+        <v>-520</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A633" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B633" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C633" s="4">
+        <v>-520</v>
+      </c>
+      <c r="D633" s="4">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A634" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B634" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C634" s="4">
+        <v>-500</v>
+      </c>
+      <c r="D634" s="4">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A635" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B635" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="C635" s="4">
+        <v>-480</v>
+      </c>
+      <c r="D635" s="4">
+        <v>-460</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A636" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B636" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C636" s="4">
+        <v>-460</v>
+      </c>
+      <c r="D636" s="4">
+        <v>-440</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A637" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B637" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C637" s="4">
+        <v>-440</v>
+      </c>
+      <c r="D637" s="4">
+        <v>-420</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A638" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B638" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C638" s="4">
+        <v>-600</v>
+      </c>
+      <c r="D638" s="4">
+        <v>-580</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A639" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B639" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C639" s="4">
+        <v>-580</v>
+      </c>
+      <c r="D639" s="4">
+        <v>-560</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A640" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B640" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="C640" s="4">
+        <v>-560</v>
+      </c>
+      <c r="D640" s="4">
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A641" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B641" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="C641" s="4">
+        <v>-540</v>
+      </c>
+      <c r="D641" s="4">
+        <v>-520</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A642" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B642" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C642" s="4">
+        <v>-520</v>
+      </c>
+      <c r="D642" s="4">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A643" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B643" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="C643" s="4">
+        <v>-500</v>
+      </c>
+      <c r="D643" s="4">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A644" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B644" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="C644" s="4">
+        <v>-480</v>
+      </c>
+      <c r="D644" s="4">
+        <v>-460</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A645" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B645" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C645" s="4">
+        <v>-460</v>
+      </c>
+      <c r="D645" s="4">
+        <v>-440</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A646" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B646" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="C646" s="4">
+        <v>-440</v>
+      </c>
+      <c r="D646" s="4">
+        <v>-420</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A647" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B647" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C647" s="4">
+        <v>-600</v>
+      </c>
+      <c r="D647" s="4">
+        <v>-580</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A648" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B648" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="C648" s="4">
+        <v>-580</v>
+      </c>
+      <c r="D648" s="4">
+        <v>-560</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A649" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B649" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="C649" s="4">
+        <v>-560</v>
+      </c>
+      <c r="D649" s="4">
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A650" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B650" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="C650" s="4">
+        <v>-540</v>
+      </c>
+      <c r="D650" s="4">
+        <v>-520</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A651" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B651" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C651" s="4">
+        <v>-520</v>
+      </c>
+      <c r="D651" s="4">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A652" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B652" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="C652" s="4">
+        <v>-500</v>
+      </c>
+      <c r="D652" s="4">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A653" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B653" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="C653" s="4">
+        <v>-480</v>
+      </c>
+      <c r="D653" s="4">
+        <v>-460</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A654" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B654" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C654" s="4">
+        <v>-460</v>
+      </c>
+      <c r="D654" s="4">
+        <v>-440</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A655" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B655" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="C655" s="4">
+        <v>-440</v>
+      </c>
+      <c r="D655" s="4">
+        <v>-420</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A656" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B656" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="C656" s="4">
+        <v>-600</v>
+      </c>
+      <c r="D656" s="4">
+        <v>-580</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A657" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B657" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="C657" s="4">
+        <v>-580</v>
+      </c>
+      <c r="D657" s="4">
+        <v>-560</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A658" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B658" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="C658" s="4">
+        <v>-560</v>
+      </c>
+      <c r="D658" s="4">
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A659" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B659" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C659" s="4">
+        <v>-540</v>
+      </c>
+      <c r="D659" s="4">
+        <v>-520</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A660" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B660" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C660" s="4">
+        <v>-520</v>
+      </c>
+      <c r="D660" s="4">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A661" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B661" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="C661" s="4">
+        <v>-500</v>
+      </c>
+      <c r="D661" s="4">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A662" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B662" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="C662" s="4">
+        <v>-480</v>
+      </c>
+      <c r="D662" s="4">
+        <v>-460</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A663" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B663" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="C663" s="4">
+        <v>-460</v>
+      </c>
+      <c r="D663" s="4">
+        <v>-440</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A664" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B664" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="C664" s="4">
+        <v>-440</v>
+      </c>
+      <c r="D664" s="4">
+        <v>-420</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A665" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B665" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="C665" s="4">
+        <v>-420</v>
+      </c>
+      <c r="D665" s="4">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A666" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B666" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="C666" s="4">
+        <v>-600</v>
+      </c>
+      <c r="D666" s="4">
+        <v>-580</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A667" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B667" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="C667" s="4">
+        <v>-580</v>
+      </c>
+      <c r="D667" s="4">
+        <v>-560</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A668" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B668" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="C668" s="4">
+        <v>-560</v>
+      </c>
+      <c r="D668" s="4">
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A669" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B669" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="C669" s="4">
+        <v>-540</v>
+      </c>
+      <c r="D669" s="4">
+        <v>-520</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A670" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B670" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C670" s="4">
+        <v>-520</v>
+      </c>
+      <c r="D670" s="4">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A671" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B671" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="C671" s="4">
+        <v>-500</v>
+      </c>
+      <c r="D671" s="4">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A672" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B672" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="C672" s="4">
+        <v>-480</v>
+      </c>
+      <c r="D672" s="4">
+        <v>-460</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A673" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B673" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="C673" s="4">
+        <v>-460</v>
+      </c>
+      <c r="D673" s="4">
+        <v>-440</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A674" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B674" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="C674" s="4">
+        <v>-440</v>
+      </c>
+      <c r="D674" s="4">
+        <v>-420</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A675" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B675" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="C675" s="4">
+        <v>-600</v>
+      </c>
+      <c r="D675" s="4">
+        <v>-580</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A676" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B676" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="C676" s="4">
+        <v>-580</v>
+      </c>
+      <c r="D676" s="4">
+        <v>-560</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A677" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B677" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="C677" s="4">
+        <v>-560</v>
+      </c>
+      <c r="D677" s="4">
+        <v>-540</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A678" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B678" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="C678" s="4">
+        <v>-540</v>
+      </c>
+      <c r="D678" s="4">
+        <v>-520</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A679" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B679" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="C679" s="4">
+        <v>-520</v>
+      </c>
+      <c r="D679" s="4">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A680" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B680" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C680" s="4">
+        <v>-500</v>
+      </c>
+      <c r="D680" s="4">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A681" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B681" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="C681" s="4">
+        <v>-480</v>
+      </c>
+      <c r="D681" s="4">
+        <v>-460</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A682" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B682" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="C682" s="4">
+        <v>-460</v>
+      </c>
+      <c r="D682" s="4">
+        <v>-440</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A683" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B683" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="C683" s="4">
+        <v>-440</v>
+      </c>
+      <c r="D683" s="4">
+        <v>-420</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
